--- a/datamining/final_data/sum2001_nltk.xlsx
+++ b/datamining/final_data/sum2001_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AHL2"/>
+  <dimension ref="A1:AGE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,4410 +502,4245 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>both</t>
+          <t>career</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>career</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>conflict</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>conflict</t>
+          <t>contribute</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>contribute</t>
+          <t>courses</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>courses</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>developmental</t>
+          <t>direction</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>direction</t>
+          <t>experience</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>experience</t>
+          <t>explored</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>explored</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>family</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>findings</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>findings</t>
+          <t>focus</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>focus</t>
+          <t>found</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>found</t>
+          <t>interactive</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>interactive</t>
+          <t>lack</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>lack</t>
+          <t>location</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>maintenance</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>maintenance</t>
+          <t>may</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>might</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>might</t>
+          <t>models</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>models</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>new</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>nonacademic</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>nonencouraging</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>nonacademic</t>
+          <t>onset</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>nonencouraging</t>
+          <t>outside</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>onset</t>
+          <t>parental</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>outside</t>
+          <t>parents</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>parental</t>
+          <t>particular</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>parents</t>
+          <t>personality</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>particular</t>
+          <t>phenomenological</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>potentially</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>phenomenological</t>
+          <t>professionally</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>potentially</t>
+          <t>retrospective</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>professionally</t>
+          <t>reversal</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>retrospective</t>
+          <t>role</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>reversal</t>
+          <t>study</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>successful</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>suggest</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>successful</t>
+          <t>task</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>suggest</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>toward</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>transitions</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>this</t>
+          <t>underachievement</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>toward</t>
+          <t>underachievers</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>transitions</t>
+          <t>underinvolved</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>underachievement</t>
+          <t>work</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>underachievers</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>underinvolved</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>work</t>
+          <t>achievers</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>adulthood</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>association</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>achievers</t>
+          <t>attention</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>calls</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>adulthood</t>
+          <t>children</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>compared</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>cs</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>data</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>attention</t>
+          <t>diffusers</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>education</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>calls</t>
+          <t>employing</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>erikson</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>compared</t>
+          <t>examination</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>cs</t>
+          <t>examined</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>explanation</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>diffusers</t>
+          <t>formation</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>framework</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>employing</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>erikson</t>
+          <t>group</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>examination</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>examined</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>explanation</t>
+          <t>least</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>formation</t>
+          <t>likely</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>framework</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>marcia</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>group</t>
+          <t>mostly</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>occupational</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>operational</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>least</t>
+          <t>points</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>likely</t>
+          <t>power</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>relationships</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>marcia</t>
+          <t>research</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>mostly</t>
+          <t>respect</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>occupational</t>
+          <t>significant</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>operational</t>
+          <t>subset</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>points</t>
+          <t>success</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>power</t>
+          <t>terman</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>relationships</t>
+          <t>theory</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>research</t>
+          <t>unsuccessful</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>respect</t>
+          <t>varied</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>significant</t>
+          <t>whereas</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>subset</t>
+          <t>within</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>562</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>terman</t>
+          <t>advanced</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>among</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>theory</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>unsuccessful</t>
+          <t>based</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>varied</t>
+          <t>confirmed</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>whereas</t>
+          <t>curriculum</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>within</t>
+          <t>either</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>562</t>
+          <t>emotional</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>advanced</t>
+          <t>examines</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>examining</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>females</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>based</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>confirmed</t>
+          <t>gifted-ness</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>curriculum</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>either</t>
+          <t>giftednesss</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>emotional</t>
+          <t>higher</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>examines</t>
+          <t>ii</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>examining</t>
+          <t>ima</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>females</t>
+          <t>intellectual</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>further</t>
+          <t>large</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>males</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>gifted-ness</t>
+          <t>measured</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>national</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>giftednesss</t>
+          <t>open-ended</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>higher</t>
+          <t>overall</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>ii</t>
+          <t>overexcitabilities</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>ima</t>
+          <t>overexcitability</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>intellectual</t>
+          <t>participation</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>large</t>
+          <t>previous</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>males</t>
+          <t>program</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>measured</t>
+          <t>programs</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>psychomotor</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>open-ended</t>
+          <t>questionnaire</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>overall</t>
+          <t>relationship</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>overexcitabilities</t>
+          <t>results</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>overexcitability</t>
+          <t>sample</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>participation</t>
+          <t>samples</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>previous</t>
+          <t>scored</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>self-rating</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>programs</t>
+          <t>sensual</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>psychomotor</t>
+          <t>show</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>questionnaire</t>
+          <t>significantly</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>relationship</t>
+          <t>small</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>results</t>
+          <t>standard</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>student</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>samples</t>
+          <t>students</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>scored</t>
+          <t>studies</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>self-rating</t>
+          <t>two</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>sensual</t>
+          <t>university</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>show</t>
+          <t>uses</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>significantly</t>
+          <t>48</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>although</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>standard</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>assigned</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>beneficial</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>studies</t>
+          <t>competitive</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>control</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>cooperative</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>uses</t>
+          <t>course</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>design</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>although</t>
+          <t>differences</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>approach</t>
+          <t>eighth-grade</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>assigned</t>
+          <t>enrichment</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>beneficial</t>
+          <t>experimental</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>competitive</t>
+          <t>favoring</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>groups</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>cooperative</t>
+          <t>heuristic</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>influence</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>design</t>
+          <t>instruction</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>differences</t>
+          <t>investigate</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>eighth-grade</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>enrichment</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>experimental</t>
+          <t>mathematical</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>favoring</t>
+          <t>mathematics</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>groups</t>
+          <t>offered</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>heuristic</t>
+          <t>one</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>influence</t>
+          <t>participating</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>instruction</t>
+          <t>particularly</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>investigate</t>
+          <t>pretest-posttest</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>probability</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>mathematical</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>mathematics</t>
+          <t>purpose</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>offered</t>
+          <t>randomly</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>self-efficacy</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>participating</t>
+          <t>setting</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>particularly</t>
+          <t>settings</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>pretest-posttest</t>
+          <t>seventh-</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>probability</t>
+          <t>single-gender</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>problem</t>
+          <t>solving</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>statistical</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>purpose</t>
+          <t>statistically</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>randomly</t>
+          <t>statistics</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>self-efficacy</t>
+          <t>strategies</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>setting</t>
+          <t>suggests</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>settings</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>seventh-</t>
+          <t>talented</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>single-gender</t>
+          <t>taught</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>solving</t>
+          <t>two-week</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>statistical</t>
+          <t>used</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>statistically</t>
+          <t>using</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>statistics</t>
+          <t>whole-group</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>strategies</t>
+          <t>371</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>suggests</t>
+          <t>433</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>804</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>talented</t>
+          <t>academically</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>taught</t>
+          <t>american</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>two-week</t>
+          <t>asian</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>used</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>balanced</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>whole-group</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>classes</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>colleagues</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>collected</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>academically</t>
+          <t>consisted</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>american</t>
+          <t>endorsed</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>asian</t>
+          <t>enjoying</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>balanced</t>
+          <t>enrolled</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>enrollment</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>classes</t>
+          <t>equal</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>colleagues</t>
+          <t>evaluation</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>collected</t>
+          <t>external</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>consisted</t>
+          <t>female</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>endorsed</t>
+          <t>fewer</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>enjoying</t>
+          <t>finally</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>gave</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>enrolled</t>
+          <t>greater</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>enrollment</t>
+          <t>internal</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>equal</t>
+          <t>male</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>evaluation</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>external</t>
+          <t>non-asian</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>numbers</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>fewer</t>
+          <t>participants</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>finally</t>
+          <t>patterns</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>gave</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>greater</t>
+          <t>reported</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>selection</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>internal</t>
+          <t>self-reported</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>tf</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>tm</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>non-asian</t>
+          <t>traditionally</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>numbers</t>
+          <t>types</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>participants</t>
+          <t>2nd</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>patterns</t>
+          <t>edition</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>reasons</t>
+          <t>handbook</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>reported</t>
+          <t>international</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>selection</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>self-reported</t>
+          <t>city</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>tf</t>
+          <t>high</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>tm</t>
+          <t>inner</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>traditionally</t>
+          <t>rise</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>types</t>
+          <t>school</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>2nd</t>
+          <t>still</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>edition</t>
+          <t>trials</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>handbook</t>
+          <t>triumphs</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>international</t>
+          <t>twelve</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>editor</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>and</t>
+          <t>atypical</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>contextuak</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>high</t>
+          <t>described</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>inner</t>
+          <t>effort</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>rise</t>
+          <t>emerged</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>ethnographic</t>
         </is>
       </c>
       <c r="JN1" s="1" t="inlineStr">
         <is>
-          <t>still</t>
+          <t>inquiry</t>
         </is>
       </c>
       <c r="JO1" s="1" t="inlineStr">
         <is>
-          <t>trials</t>
+          <t>judged</t>
         </is>
       </c>
       <c r="JP1" s="1" t="inlineStr">
         <is>
-          <t>triumphs</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="JQ1" s="1" t="inlineStr">
         <is>
-          <t>twelve</t>
+          <t>presented</t>
         </is>
       </c>
       <c r="JR1" s="1" t="inlineStr">
         <is>
-          <t>editor</t>
+          <t>public</t>
         </is>
       </c>
       <c r="JS1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>quilt</t>
         </is>
       </c>
       <c r="JT1" s="1" t="inlineStr">
         <is>
-          <t>atypical</t>
+          <t>rag</t>
         </is>
       </c>
       <c r="JU1" s="1" t="inlineStr">
         <is>
-          <t>contextuak</t>
+          <t>residential</t>
         </is>
       </c>
       <c r="JV1" s="1" t="inlineStr">
         <is>
-          <t>described</t>
+          <t>social</t>
         </is>
       </c>
       <c r="JW1" s="1" t="inlineStr">
         <is>
-          <t>effort</t>
+          <t>special</t>
         </is>
       </c>
       <c r="JX1" s="1" t="inlineStr">
         <is>
-          <t>emerged</t>
+          <t>studied</t>
         </is>
       </c>
       <c r="JY1" s="1" t="inlineStr">
         <is>
-          <t>ethnographic</t>
+          <t>system</t>
         </is>
       </c>
       <c r="JZ1" s="1" t="inlineStr">
         <is>
-          <t>inquiry</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="KA1" s="1" t="inlineStr">
         <is>
-          <t>judged</t>
+          <t>12</t>
         </is>
       </c>
       <c r="KB1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="KC1" s="1" t="inlineStr">
         <is>
-          <t>presented</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="KD1" s="1" t="inlineStr">
         <is>
-          <t>public</t>
+          <t>achieve</t>
         </is>
       </c>
       <c r="KE1" s="1" t="inlineStr">
         <is>
-          <t>quilt</t>
+          <t>article</t>
         </is>
       </c>
       <c r="KF1" s="1" t="inlineStr">
         <is>
-          <t>rag</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="KG1" s="1" t="inlineStr">
         <is>
-          <t>residential</t>
+          <t>case</t>
         </is>
       </c>
       <c r="KH1" s="1" t="inlineStr">
         <is>
-          <t>social</t>
+          <t>cases</t>
         </is>
       </c>
       <c r="KI1" s="1" t="inlineStr">
         <is>
-          <t>special</t>
+          <t>change</t>
         </is>
       </c>
       <c r="KJ1" s="1" t="inlineStr">
         <is>
-          <t>studied</t>
+          <t>chronicling</t>
         </is>
       </c>
       <c r="KK1" s="1" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>classrooms</t>
         </is>
       </c>
       <c r="KL1" s="1" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>contributed</t>
         </is>
       </c>
       <c r="KM1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>counseling</t>
         </is>
       </c>
       <c r="KN1" s="1" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>curricular</t>
         </is>
       </c>
       <c r="KO1" s="1" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>despite</t>
         </is>
       </c>
       <c r="KP1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>diaz</t>
         </is>
       </c>
       <c r="KQ1" s="1" t="inlineStr">
         <is>
-          <t>achieve</t>
+          <t>discipline</t>
         </is>
       </c>
       <c r="KR1" s="1" t="inlineStr">
         <is>
-          <t>article</t>
+          <t>educational</t>
         </is>
       </c>
       <c r="KS1" s="1" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>environmental</t>
         </is>
       </c>
       <c r="KT1" s="1" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>experiences</t>
         </is>
       </c>
       <c r="KU1" s="1" t="inlineStr">
         <is>
-          <t>cases</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="KV1" s="1" t="inlineStr">
         <is>
-          <t>change</t>
+          <t>happens</t>
         </is>
       </c>
       <c r="KW1" s="1" t="inlineStr">
         <is>
-          <t>chronicling</t>
+          <t>hebert</t>
         </is>
       </c>
       <c r="KX1" s="1" t="inlineStr">
         <is>
-          <t>classrooms</t>
+          <t>high-ability</t>
         </is>
       </c>
       <c r="KY1" s="1" t="inlineStr">
         <is>
-          <t>contributed</t>
+          <t>implications</t>
         </is>
       </c>
       <c r="KZ1" s="1" t="inlineStr">
         <is>
-          <t>counseling</t>
+          <t>inappropriate</t>
         </is>
       </c>
       <c r="LA1" s="1" t="inlineStr">
         <is>
-          <t>curricular</t>
+          <t>included</t>
         </is>
       </c>
       <c r="LB1" s="1" t="inlineStr">
         <is>
-          <t>despite</t>
+          <t>influenced</t>
         </is>
       </c>
       <c r="LC1" s="1" t="inlineStr">
         <is>
-          <t>diaz</t>
+          <t>influences</t>
         </is>
       </c>
       <c r="LD1" s="1" t="inlineStr">
         <is>
-          <t>discipline</t>
+          <t>inner-city</t>
         </is>
       </c>
       <c r="LE1" s="1" t="inlineStr">
         <is>
-          <t>educational</t>
+          <t>integrated</t>
         </is>
       </c>
       <c r="LF1" s="1" t="inlineStr">
         <is>
-          <t>environmental</t>
+          <t>intelligent</t>
         </is>
       </c>
       <c r="LG1" s="1" t="inlineStr">
         <is>
-          <t>experiences</t>
+          <t>investigation</t>
         </is>
       </c>
       <c r="LH1" s="1" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>issues</t>
         </is>
       </c>
       <c r="LI1" s="1" t="inlineStr">
         <is>
-          <t>happens</t>
+          <t>know</t>
         </is>
       </c>
       <c r="LJ1" s="1" t="inlineStr">
         <is>
-          <t>hebert</t>
+          <t>larger</t>
         </is>
       </c>
       <c r="LK1" s="1" t="inlineStr">
         <is>
-          <t>high-ability</t>
+          <t>life</t>
         </is>
       </c>
       <c r="LL1" s="1" t="inlineStr">
         <is>
-          <t>i</t>
+          <t>lives</t>
         </is>
       </c>
       <c r="LM1" s="1" t="inlineStr">
         <is>
-          <t>if</t>
+          <t>major</t>
         </is>
       </c>
       <c r="LN1" s="1" t="inlineStr">
         <is>
-          <t>implications</t>
+          <t>maxfield</t>
         </is>
       </c>
       <c r="LO1" s="1" t="inlineStr">
         <is>
-          <t>inappropriate</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
-          <t>included</t>
+          <t>men</t>
         </is>
       </c>
       <c r="LQ1" s="1" t="inlineStr">
         <is>
-          <t>influenced</t>
+          <t>needs</t>
         </is>
       </c>
       <c r="LR1" s="1" t="inlineStr">
         <is>
-          <t>influences</t>
+          <t>notebook</t>
         </is>
       </c>
       <c r="LS1" s="1" t="inlineStr">
         <is>
-          <t>inner-city</t>
+          <t>peer</t>
         </is>
       </c>
       <c r="LT1" s="1" t="inlineStr">
         <is>
-          <t>integrated</t>
+          <t>potential</t>
         </is>
       </c>
       <c r="LU1" s="1" t="inlineStr">
         <is>
-          <t>intelligent</t>
+          <t>preponderance</t>
         </is>
       </c>
       <c r="LV1" s="1" t="inlineStr">
         <is>
-          <t>investigation</t>
+          <t>problematic</t>
         </is>
       </c>
       <c r="LW1" s="1" t="inlineStr">
         <is>
-          <t>issues</t>
+          <t>problems</t>
         </is>
       </c>
       <c r="LX1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>qualitative</t>
         </is>
       </c>
       <c r="LY1" s="1" t="inlineStr">
         <is>
-          <t>larger</t>
+          <t>ratley</t>
         </is>
       </c>
       <c r="LZ1" s="1" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>reach</t>
         </is>
       </c>
       <c r="MA1" s="1" t="inlineStr">
         <is>
-          <t>lives</t>
+          <t>reis</t>
         </is>
       </c>
       <c r="MB1" s="1" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>schools</t>
         </is>
       </c>
       <c r="MC1" s="1" t="inlineStr">
         <is>
-          <t>maxfield</t>
+          <t>secondary</t>
         </is>
       </c>
       <c r="MD1" s="1" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>suggestions</t>
         </is>
       </c>
       <c r="ME1" s="1" t="inlineStr">
         <is>
-          <t>men</t>
+          <t>teenagers</t>
         </is>
       </c>
       <c r="MF1" s="1" t="inlineStr">
         <is>
-          <t>needs</t>
+          <t>things</t>
         </is>
       </c>
       <c r="MG1" s="1" t="inlineStr">
         <is>
-          <t>notebook</t>
+          <t>uncovered</t>
         </is>
       </c>
       <c r="MH1" s="1" t="inlineStr">
         <is>
-          <t>peer</t>
+          <t>underachieving</t>
         </is>
       </c>
       <c r="MI1" s="1" t="inlineStr">
         <is>
-          <t>potential</t>
+          <t>urban</t>
         </is>
       </c>
       <c r="MJ1" s="1" t="inlineStr">
         <is>
-          <t>preponderance</t>
+          <t>would</t>
         </is>
       </c>
       <c r="MK1" s="1" t="inlineStr">
         <is>
-          <t>problematic</t>
+          <t>young</t>
         </is>
       </c>
       <c r="ML1" s="1" t="inlineStr">
         <is>
-          <t>problems</t>
+          <t>abilities</t>
         </is>
       </c>
       <c r="MM1" s="1" t="inlineStr">
         <is>
-          <t>qualitative</t>
+          <t>adapted</t>
         </is>
       </c>
       <c r="MN1" s="1" t="inlineStr">
         <is>
-          <t>ratley</t>
+          <t>another</t>
         </is>
       </c>
       <c r="MO1" s="1" t="inlineStr">
         <is>
-          <t>reach</t>
+          <t>applying</t>
         </is>
       </c>
       <c r="MP1" s="1" t="inlineStr">
         <is>
-          <t>reis</t>
+          <t>appropriate</t>
         </is>
       </c>
       <c r="MQ1" s="1" t="inlineStr">
         <is>
-          <t>schools</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="MR1" s="1" t="inlineStr">
         <is>
-          <t>secondary</t>
+          <t>called</t>
         </is>
       </c>
       <c r="MS1" s="1" t="inlineStr">
         <is>
-          <t>suggestions</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="MT1" s="1" t="inlineStr">
         <is>
-          <t>teenagers</t>
+          <t>collaboration</t>
         </is>
       </c>
       <c r="MU1" s="1" t="inlineStr">
         <is>
-          <t>things</t>
+          <t>collaborative</t>
         </is>
       </c>
       <c r="MV1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>context</t>
         </is>
       </c>
       <c r="MW1" s="1" t="inlineStr">
         <is>
-          <t>uncovered</t>
+          <t>coteaching</t>
         </is>
       </c>
       <c r="MX1" s="1" t="inlineStr">
         <is>
-          <t>underachieving</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="MY1" s="1" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>definition</t>
         </is>
       </c>
       <c r="MZ1" s="1" t="inlineStr">
         <is>
-          <t>would</t>
+          <t>developed</t>
         </is>
       </c>
       <c r="NA1" s="1" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>differentiation</t>
         </is>
       </c>
       <c r="NB1" s="1" t="inlineStr">
         <is>
-          <t>abilities</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="NC1" s="1" t="inlineStr">
         <is>
-          <t>adapted</t>
+          <t>ensure</t>
         </is>
       </c>
       <c r="ND1" s="1" t="inlineStr">
         <is>
-          <t>another</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="NE1" s="1" t="inlineStr">
         <is>
-          <t>applying</t>
+          <t>examples</t>
         </is>
       </c>
       <c r="NF1" s="1" t="inlineStr">
         <is>
-          <t>appropriate</t>
+          <t>expands</t>
         </is>
       </c>
       <c r="NG1" s="1" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>field</t>
         </is>
       </c>
       <c r="NH1" s="1" t="inlineStr">
         <is>
-          <t>because</t>
+          <t>five</t>
         </is>
       </c>
       <c r="NI1" s="1" t="inlineStr">
         <is>
-          <t>called</t>
+          <t>fundamental</t>
         </is>
       </c>
       <c r="NJ1" s="1" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>general</t>
         </is>
       </c>
       <c r="NK1" s="1" t="inlineStr">
         <is>
-          <t>collaboration</t>
+          <t>increasingly</t>
         </is>
       </c>
       <c r="NL1" s="1" t="inlineStr">
         <is>
-          <t>collaborative</t>
+          <t>instructed</t>
         </is>
       </c>
       <c r="NM1" s="1" t="inlineStr">
         <is>
-          <t>context</t>
+          <t>lessons</t>
         </is>
       </c>
       <c r="NN1" s="1" t="inlineStr">
         <is>
-          <t>coteaching</t>
+          <t>mandated</t>
         </is>
       </c>
       <c r="NO1" s="1" t="inlineStr">
         <is>
-          <t>critical</t>
+          <t>mirrors</t>
         </is>
       </c>
       <c r="NP1" s="1" t="inlineStr">
         <is>
-          <t>definition</t>
+          <t>occur</t>
         </is>
       </c>
       <c r="NQ1" s="1" t="inlineStr">
         <is>
-          <t>developed</t>
+          <t>order</t>
         </is>
       </c>
       <c r="NR1" s="1" t="inlineStr">
         <is>
-          <t>differentiation</t>
+          <t>originally</t>
         </is>
       </c>
       <c r="NS1" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>pf</t>
         </is>
       </c>
       <c r="NT1" s="1" t="inlineStr">
         <is>
-          <t>ensure</t>
+          <t>provide</t>
         </is>
       </c>
       <c r="NU1" s="1" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>provided</t>
         </is>
       </c>
       <c r="NV1" s="1" t="inlineStr">
         <is>
-          <t>examples</t>
+          <t>provides</t>
         </is>
       </c>
       <c r="NW1" s="1" t="inlineStr">
         <is>
-          <t>expands</t>
+          <t>regular</t>
         </is>
       </c>
       <c r="NX1" s="1" t="inlineStr">
         <is>
-          <t>field</t>
+          <t>served</t>
         </is>
       </c>
       <c r="NY1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>services</t>
         </is>
       </c>
       <c r="NZ1" s="1" t="inlineStr">
         <is>
-          <t>fundamental</t>
+          <t>strategy</t>
         </is>
       </c>
       <c r="OA1" s="1" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>typically</t>
         </is>
       </c>
       <c r="OB1" s="1" t="inlineStr">
         <is>
-          <t>increasingly</t>
+          <t>upon</t>
         </is>
       </c>
       <c r="OC1" s="1" t="inlineStr">
         <is>
-          <t>instructed</t>
+          <t>use</t>
         </is>
       </c>
       <c r="OD1" s="1" t="inlineStr">
         <is>
-          <t>lessons</t>
+          <t>utilization</t>
         </is>
       </c>
       <c r="OE1" s="1" t="inlineStr">
         <is>
-          <t>mandated</t>
+          <t>wherein</t>
         </is>
       </c>
       <c r="OF1" s="1" t="inlineStr">
         <is>
-          <t>mirrors</t>
+          <t>ability</t>
         </is>
       </c>
       <c r="OG1" s="1" t="inlineStr">
         <is>
-          <t>occur</t>
+          <t>analogous</t>
         </is>
       </c>
       <c r="OH1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>average</t>
         </is>
       </c>
       <c r="OI1" s="1" t="inlineStr">
         <is>
-          <t>originally</t>
+          <t>awareness</t>
         </is>
       </c>
       <c r="OJ1" s="1" t="inlineStr">
         <is>
-          <t>pf</t>
+          <t>better</t>
         </is>
       </c>
       <c r="OK1" s="1" t="inlineStr">
         <is>
-          <t>provide</t>
+          <t>capabilities</t>
         </is>
       </c>
       <c r="OL1" s="1" t="inlineStr">
         <is>
-          <t>provided</t>
+          <t>cartoon</t>
         </is>
       </c>
       <c r="OM1" s="1" t="inlineStr">
         <is>
-          <t>provides</t>
+          <t>cartoons</t>
         </is>
       </c>
       <c r="ON1" s="1" t="inlineStr">
         <is>
-          <t>regular</t>
+          <t>conceived</t>
         </is>
       </c>
       <c r="OO1" s="1" t="inlineStr">
         <is>
-          <t>served</t>
+          <t>consciously</t>
         </is>
       </c>
       <c r="OP1" s="1" t="inlineStr">
         <is>
-          <t>services</t>
+          <t>considered</t>
         </is>
       </c>
       <c r="OQ1" s="1" t="inlineStr">
         <is>
-          <t>strategy</t>
+          <t>contribution</t>
         </is>
       </c>
       <c r="OR1" s="1" t="inlineStr">
         <is>
-          <t>typically</t>
+          <t>correctness</t>
         </is>
       </c>
       <c r="OS1" s="1" t="inlineStr">
         <is>
-          <t>upon</t>
+          <t>difficulty</t>
         </is>
       </c>
       <c r="OT1" s="1" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>encounter</t>
         </is>
       </c>
       <c r="OU1" s="1" t="inlineStr">
         <is>
-          <t>utilization</t>
+          <t>enhance</t>
         </is>
       </c>
       <c r="OV1" s="1" t="inlineStr">
         <is>
-          <t>wherein</t>
+          <t>expected</t>
         </is>
       </c>
       <c r="OW1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>exposed</t>
         </is>
       </c>
       <c r="OX1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>formal</t>
         </is>
       </c>
       <c r="OY1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>four</t>
         </is>
       </c>
       <c r="OZ1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>gifted/average</t>
         </is>
       </c>
       <c r="PA1" s="1" t="inlineStr">
         <is>
-          <t>ability</t>
+          <t>improved</t>
         </is>
       </c>
       <c r="PB1" s="1" t="inlineStr">
         <is>
-          <t>analogous</t>
+          <t>including</t>
         </is>
       </c>
       <c r="PC1" s="1" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>increased</t>
         </is>
       </c>
       <c r="PD1" s="1" t="inlineStr">
         <is>
-          <t>awareness</t>
+          <t>ir</t>
         </is>
       </c>
       <c r="PE1" s="1" t="inlineStr">
         <is>
-          <t>better</t>
+          <t>learned</t>
         </is>
       </c>
       <c r="PF1" s="1" t="inlineStr">
         <is>
-          <t>capabilities</t>
+          <t>leisure</t>
         </is>
       </c>
       <c r="PG1" s="1" t="inlineStr">
         <is>
-          <t>cartoon</t>
+          <t>mainly</t>
         </is>
       </c>
       <c r="PH1" s="1" t="inlineStr">
         <is>
-          <t>cartoons</t>
+          <t>modalities</t>
         </is>
       </c>
       <c r="PI1" s="1" t="inlineStr">
         <is>
-          <t>conceived</t>
+          <t>modality</t>
         </is>
       </c>
       <c r="PJ1" s="1" t="inlineStr">
         <is>
-          <t>consciously</t>
+          <t>nonlearning</t>
         </is>
       </c>
       <c r="PK1" s="1" t="inlineStr">
         <is>
-          <t>considered</t>
+          <t>nonthreatening</t>
         </is>
       </c>
       <c r="PL1" s="1" t="inlineStr">
         <is>
-          <t>contribution</t>
+          <t>perceived</t>
         </is>
       </c>
       <c r="PM1" s="1" t="inlineStr">
         <is>
-          <t>correctness</t>
+          <t>populations</t>
         </is>
       </c>
       <c r="PN1" s="1" t="inlineStr">
         <is>
-          <t>difficulty</t>
+          <t>processing</t>
         </is>
       </c>
       <c r="PO1" s="1" t="inlineStr">
         <is>
-          <t>encounter</t>
+          <t>schooling</t>
         </is>
       </c>
       <c r="PP1" s="1" t="inlineStr">
         <is>
-          <t>enhance</t>
+          <t>skills</t>
         </is>
       </c>
       <c r="PQ1" s="1" t="inlineStr">
         <is>
-          <t>expected</t>
+          <t>solution</t>
         </is>
       </c>
       <c r="PR1" s="1" t="inlineStr">
         <is>
-          <t>exposed</t>
+          <t>solutions</t>
         </is>
       </c>
       <c r="PS1" s="1" t="inlineStr">
         <is>
-          <t>formal</t>
+          <t>solve</t>
         </is>
       </c>
       <c r="PT1" s="1" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>source</t>
         </is>
       </c>
       <c r="PU1" s="1" t="inlineStr">
         <is>
-          <t>gifted/average</t>
+          <t>specifically</t>
         </is>
       </c>
       <c r="PV1" s="1" t="inlineStr">
         <is>
-          <t>improved</t>
+          <t>tended</t>
         </is>
       </c>
       <c r="PW1" s="1" t="inlineStr">
         <is>
-          <t>including</t>
+          <t>time</t>
         </is>
       </c>
       <c r="PX1" s="1" t="inlineStr">
         <is>
-          <t>increased</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="PY1" s="1" t="inlineStr">
         <is>
-          <t>ir</t>
+          <t>variables</t>
         </is>
       </c>
       <c r="PZ1" s="1" t="inlineStr">
         <is>
-          <t>learned</t>
+          <t>verbal</t>
         </is>
       </c>
       <c r="QA1" s="1" t="inlineStr">
         <is>
-          <t>leisure</t>
+          <t>visual</t>
         </is>
       </c>
       <c r="QB1" s="1" t="inlineStr">
         <is>
-          <t>mainly</t>
+          <t>visual-humorous</t>
         </is>
       </c>
       <c r="QC1" s="1" t="inlineStr">
         <is>
-          <t>modalities</t>
+          <t>working</t>
         </is>
       </c>
       <c r="QD1" s="1" t="inlineStr">
         <is>
-          <t>modality</t>
+          <t>yet</t>
         </is>
       </c>
       <c r="QE1" s="1" t="inlineStr">
         <is>
-          <t>nonlearning</t>
+          <t>across</t>
         </is>
       </c>
       <c r="QF1" s="1" t="inlineStr">
         <is>
-          <t>nonthreatening</t>
+          <t>adopt</t>
         </is>
       </c>
       <c r="QG1" s="1" t="inlineStr">
         <is>
-          <t>perceived</t>
+          <t>asked</t>
         </is>
       </c>
       <c r="QH1" s="1" t="inlineStr">
         <is>
-          <t>populations</t>
+          <t>assessments</t>
         </is>
       </c>
       <c r="QI1" s="1" t="inlineStr">
         <is>
-          <t>processing</t>
+          <t>attended</t>
         </is>
       </c>
       <c r="QJ1" s="1" t="inlineStr">
         <is>
-          <t>schooling</t>
+          <t>best</t>
         </is>
       </c>
       <c r="QK1" s="1" t="inlineStr">
         <is>
-          <t>skills</t>
+          <t>condition</t>
         </is>
       </c>
       <c r="QL1" s="1" t="inlineStr">
         <is>
-          <t>solution</t>
+          <t>evaluative</t>
         </is>
       </c>
       <c r="QM1" s="1" t="inlineStr">
         <is>
-          <t>solutions</t>
+          <t>features</t>
         </is>
       </c>
       <c r="QN1" s="1" t="inlineStr">
         <is>
-          <t>solve</t>
+          <t>fifth-graders</t>
         </is>
       </c>
       <c r="QO1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>game</t>
         </is>
       </c>
       <c r="QP1" s="1" t="inlineStr">
         <is>
-          <t>specifically</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="QQ1" s="1" t="inlineStr">
         <is>
-          <t>tended</t>
+          <t>goals</t>
         </is>
       </c>
       <c r="QR1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="QS1" s="1" t="inlineStr">
         <is>
-          <t>transfer</t>
+          <t>hypothesis</t>
         </is>
       </c>
       <c r="QT1" s="1" t="inlineStr">
         <is>
-          <t>variables</t>
+          <t>impact</t>
         </is>
       </c>
       <c r="QU1" s="1" t="inlineStr">
         <is>
-          <t>verbal</t>
+          <t>indicated</t>
         </is>
       </c>
       <c r="QV1" s="1" t="inlineStr">
         <is>
-          <t>visual</t>
+          <t>level</t>
         </is>
       </c>
       <c r="QW1" s="1" t="inlineStr">
         <is>
-          <t>visual-humorous</t>
+          <t>made</t>
         </is>
       </c>
       <c r="QX1" s="1" t="inlineStr">
         <is>
-          <t>working</t>
+          <t>older</t>
         </is>
       </c>
       <c r="QY1" s="1" t="inlineStr">
         <is>
-          <t>yet</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="QZ1" s="1" t="inlineStr">
         <is>
-          <t>across</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="RA1" s="1" t="inlineStr">
         <is>
-          <t>adopt</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="RB1" s="1" t="inlineStr">
         <is>
-          <t>asked</t>
+          <t>playing</t>
         </is>
       </c>
       <c r="RC1" s="1" t="inlineStr">
         <is>
-          <t>assessments</t>
+          <t>postgame</t>
         </is>
       </c>
       <c r="RD1" s="1" t="inlineStr">
         <is>
-          <t>attended</t>
+          <t>preliminary</t>
         </is>
       </c>
       <c r="RE1" s="1" t="inlineStr">
         <is>
-          <t>before</t>
+          <t>process</t>
         </is>
       </c>
       <c r="RF1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="RG1" s="1" t="inlineStr">
         <is>
-          <t>condition</t>
+          <t>responses</t>
         </is>
       </c>
       <c r="RH1" s="1" t="inlineStr">
         <is>
-          <t>evaluative</t>
+          <t>reversed</t>
         </is>
       </c>
       <c r="RI1" s="1" t="inlineStr">
         <is>
-          <t>features</t>
+          <t>second-</t>
         </is>
       </c>
       <c r="RJ1" s="1" t="inlineStr">
         <is>
-          <t>fifth-graders</t>
+          <t>showed</t>
         </is>
       </c>
       <c r="RK1" s="1" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>specific</t>
         </is>
       </c>
       <c r="RL1" s="1" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>support</t>
         </is>
       </c>
       <c r="RM1" s="1" t="inlineStr">
         <is>
-          <t>goals</t>
+          <t>video</t>
         </is>
       </c>
       <c r="RN1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>worst</t>
         </is>
       </c>
       <c r="RO1" s="1" t="inlineStr">
         <is>
-          <t>hypothesis</t>
+          <t>younger</t>
         </is>
       </c>
       <c r="RP1" s="1" t="inlineStr">
         <is>
-          <t>impact</t>
+          <t>labeled</t>
         </is>
       </c>
       <c r="RQ1" s="1" t="inlineStr">
         <is>
-          <t>indicated</t>
+          <t>brain</t>
         </is>
       </c>
       <c r="RR1" s="1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>development</t>
         </is>
       </c>
       <c r="RS1" s="1" t="inlineStr">
         <is>
-          <t>made</t>
+          <t>early</t>
         </is>
       </c>
       <c r="RT1" s="1" t="inlineStr">
         <is>
-          <t>most</t>
+          <t>first</t>
         </is>
       </c>
       <c r="RU1" s="1" t="inlineStr">
         <is>
-          <t>older</t>
+          <t>lifelong</t>
         </is>
       </c>
       <c r="RV1" s="1" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>myth</t>
         </is>
       </c>
       <c r="RW1" s="1" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>three</t>
         </is>
       </c>
       <c r="RX1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>understanding</t>
         </is>
       </c>
       <c r="RY1" s="1" t="inlineStr">
         <is>
-          <t>playing</t>
+          <t>years</t>
         </is>
       </c>
       <c r="RZ1" s="1" t="inlineStr">
         <is>
-          <t>postgame</t>
+          <t>conversation</t>
         </is>
       </c>
       <c r="SA1" s="1" t="inlineStr">
         <is>
-          <t>preliminary</t>
+          <t>howard</t>
         </is>
       </c>
       <c r="SB1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>spicker</t>
         </is>
       </c>
       <c r="SC1" s="1" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>account</t>
         </is>
       </c>
       <c r="SD1" s="1" t="inlineStr">
         <is>
-          <t>responses</t>
+          <t>addressing</t>
         </is>
       </c>
       <c r="SE1" s="1" t="inlineStr">
         <is>
-          <t>reversed</t>
+          <t>black</t>
         </is>
       </c>
       <c r="SF1" s="1" t="inlineStr">
         <is>
-          <t>second-</t>
+          <t>child</t>
         </is>
       </c>
       <c r="SG1" s="1" t="inlineStr">
         <is>
-          <t>showed</t>
+          <t>collaborated</t>
         </is>
       </c>
       <c r="SH1" s="1" t="inlineStr">
         <is>
-          <t>specific</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="SI1" s="1" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="SJ1" s="1" t="inlineStr">
         <is>
-          <t>these</t>
+          <t>describe</t>
         </is>
       </c>
       <c r="SK1" s="1" t="inlineStr">
         <is>
-          <t>video</t>
+          <t>educators</t>
         </is>
       </c>
       <c r="SL1" s="1" t="inlineStr">
         <is>
-          <t>worst</t>
+          <t>exist</t>
         </is>
       </c>
       <c r="SM1" s="1" t="inlineStr">
         <is>
-          <t>younger</t>
+          <t>helpful</t>
         </is>
       </c>
       <c r="SN1" s="1" t="inlineStr">
         <is>
-          <t>labeled</t>
+          <t>however</t>
         </is>
       </c>
       <c r="SO1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>identified</t>
         </is>
       </c>
       <c r="SP1" s="1" t="inlineStr">
         <is>
-          <t>brain</t>
+          <t>identifying</t>
         </is>
       </c>
       <c r="SQ1" s="1" t="inlineStr">
         <is>
-          <t>development</t>
+          <t>impoverished</t>
         </is>
       </c>
       <c r="SR1" s="1" t="inlineStr">
         <is>
-          <t>early</t>
+          <t>jermaine</t>
         </is>
       </c>
       <c r="SS1" s="1" t="inlineStr">
         <is>
-          <t>first</t>
+          <t>living</t>
         </is>
       </c>
       <c r="ST1" s="1" t="inlineStr">
         <is>
-          <t>lifelong</t>
+          <t>man</t>
         </is>
       </c>
       <c r="SU1" s="1" t="inlineStr">
         <is>
-          <t>myth</t>
+          <t>offer</t>
         </is>
       </c>
       <c r="SV1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>often</t>
         </is>
       </c>
       <c r="SW1" s="1" t="inlineStr">
         <is>
-          <t>understanding</t>
+          <t>people</t>
         </is>
       </c>
       <c r="SX1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>poverty</t>
         </is>
       </c>
       <c r="SY1" s="1" t="inlineStr">
         <is>
-          <t>conversation</t>
+          <t>preventing</t>
         </is>
       </c>
       <c r="SZ1" s="1" t="inlineStr">
         <is>
-          <t>howard</t>
+          <t>realizing</t>
         </is>
       </c>
       <c r="TA1" s="1" t="inlineStr">
         <is>
-          <t>spicker</t>
+          <t>researcher</t>
         </is>
       </c>
       <c r="TB1" s="1" t="inlineStr">
         <is>
-          <t>account</t>
+          <t>resilience</t>
         </is>
       </c>
       <c r="TC1" s="1" t="inlineStr">
         <is>
-          <t>addressing</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="TD1" s="1" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="TE1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="TF1" s="1" t="inlineStr">
         <is>
-          <t>collaborated</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="TG1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>artistically</t>
         </is>
       </c>
       <c r="TH1" s="1" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>arts</t>
         </is>
       </c>
       <c r="TI1" s="1" t="inlineStr">
         <is>
-          <t>describe</t>
+          <t>backgrounds</t>
         </is>
       </c>
       <c r="TJ1" s="1" t="inlineStr">
         <is>
-          <t>educators</t>
+          <t>cdat</t>
         </is>
       </c>
       <c r="TK1" s="1" t="inlineStr">
         <is>
-          <t>exist</t>
+          <t>clark</t>
         </is>
       </c>
       <c r="TL1" s="1" t="inlineStr">
         <is>
-          <t>helpful</t>
+          <t>communities</t>
         </is>
       </c>
       <c r="TM1" s="1" t="inlineStr">
         <is>
-          <t>however</t>
+          <t>community</t>
         </is>
       </c>
       <c r="TN1" s="1" t="inlineStr">
         <is>
-          <t>identified</t>
+          <t>correlated</t>
         </is>
       </c>
       <c r="TO1" s="1" t="inlineStr">
         <is>
-          <t>identifying</t>
+          <t>designed</t>
         </is>
       </c>
       <c r="TP1" s="1" t="inlineStr">
         <is>
-          <t>impoverished</t>
+          <t>different</t>
         </is>
       </c>
       <c r="TQ1" s="1" t="inlineStr">
         <is>
-          <t>jermaine</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="TR1" s="1" t="inlineStr">
         <is>
-          <t>living</t>
+          <t>drawing</t>
         </is>
       </c>
       <c r="TS1" s="1" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>ethnic</t>
         </is>
       </c>
       <c r="TT1" s="1" t="inlineStr">
         <is>
-          <t>offer</t>
+          <t>except</t>
         </is>
       </c>
       <c r="TU1" s="1" t="inlineStr">
         <is>
-          <t>often</t>
+          <t>graders</t>
         </is>
       </c>
       <c r="TV1" s="1" t="inlineStr">
         <is>
-          <t>people</t>
+          <t>identification</t>
         </is>
       </c>
       <c r="TW1" s="1" t="inlineStr">
         <is>
-          <t>poverty</t>
+          <t>identify</t>
         </is>
       </c>
       <c r="TX1" s="1" t="inlineStr">
         <is>
-          <t>preventing</t>
+          <t>implement</t>
         </is>
       </c>
       <c r="TY1" s="1" t="inlineStr">
         <is>
-          <t>realizing</t>
+          <t>local</t>
         </is>
       </c>
       <c r="TZ1" s="1" t="inlineStr">
         <is>
-          <t>researcher</t>
+          <t>locally</t>
         </is>
       </c>
       <c r="UA1" s="1" t="inlineStr">
         <is>
-          <t>resilience</t>
+          <t>measures</t>
         </is>
       </c>
       <c r="UB1" s="1" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>members</t>
         </is>
       </c>
       <c r="UC1" s="1" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>project</t>
         </is>
       </c>
       <c r="UD1" s="1" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>recommended</t>
         </is>
       </c>
       <c r="UE1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>scores</t>
         </is>
       </c>
       <c r="UF1" s="1" t="inlineStr">
         <is>
-          <t>artistically</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="UG1" s="1" t="inlineStr">
         <is>
-          <t>arts</t>
+          <t>several</t>
         </is>
       </c>
       <c r="UH1" s="1" t="inlineStr">
         <is>
-          <t>backgrounds</t>
+          <t>similar</t>
         </is>
       </c>
       <c r="UI1" s="1" t="inlineStr">
         <is>
-          <t>cdat</t>
+          <t>site</t>
         </is>
       </c>
       <c r="UJ1" s="1" t="inlineStr">
         <is>
-          <t>clark</t>
+          <t>staff</t>
         </is>
       </c>
       <c r="UK1" s="1" t="inlineStr">
         <is>
-          <t>communities</t>
+          <t>state</t>
         </is>
       </c>
       <c r="UL1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>states</t>
         </is>
       </c>
       <c r="UM1" s="1" t="inlineStr">
         <is>
-          <t>correlated</t>
+          <t>test</t>
         </is>
       </c>
       <c r="UN1" s="1" t="inlineStr">
         <is>
-          <t>designed</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="UO1" s="1" t="inlineStr">
         <is>
-          <t>different</t>
+          <t>third</t>
         </is>
       </c>
       <c r="UP1" s="1" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="UQ1" s="1" t="inlineStr">
         <is>
-          <t>drawing</t>
+          <t>united</t>
         </is>
       </c>
       <c r="UR1" s="1" t="inlineStr">
         <is>
-          <t>ethnic</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="US1" s="1" t="inlineStr">
         <is>
-          <t>except</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="UT1" s="1" t="inlineStr">
         <is>
-          <t>graders</t>
+          <t>additionally</t>
         </is>
       </c>
       <c r="UU1" s="1" t="inlineStr">
         <is>
-          <t>identification</t>
+          <t>challenge</t>
         </is>
       </c>
       <c r="UV1" s="1" t="inlineStr">
         <is>
-          <t>identify</t>
+          <t>class</t>
         </is>
       </c>
       <c r="UW1" s="1" t="inlineStr">
         <is>
-          <t>implement</t>
+          <t>counterparts</t>
         </is>
       </c>
       <c r="UX1" s="1" t="inlineStr">
         <is>
-          <t>it</t>
+          <t>differed</t>
         </is>
       </c>
       <c r="UY1" s="1" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="UZ1" s="1" t="inlineStr">
         <is>
-          <t>locally</t>
+          <t>discussed</t>
         </is>
       </c>
       <c r="VA1" s="1" t="inlineStr">
         <is>
-          <t>measures</t>
+          <t>elementary</t>
         </is>
       </c>
       <c r="VB1" s="1" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>enjoyable</t>
         </is>
       </c>
       <c r="VC1" s="1" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>evidence</t>
         </is>
       </c>
       <c r="VD1" s="1" t="inlineStr">
         <is>
-          <t>recommended</t>
+          <t>frequently</t>
         </is>
       </c>
       <c r="VE1" s="1" t="inlineStr">
         <is>
-          <t>scores</t>
+          <t>instrument</t>
         </is>
       </c>
       <c r="VF1" s="1" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="VG1" s="1" t="inlineStr">
         <is>
-          <t>several</t>
+          <t>less</t>
         </is>
       </c>
       <c r="VH1" s="1" t="inlineStr">
         <is>
-          <t>similar</t>
+          <t>middle</t>
         </is>
       </c>
       <c r="VI1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>peers</t>
         </is>
       </c>
       <c r="VJ1" s="1" t="inlineStr">
         <is>
-          <t>staff</t>
+          <t>perceptions</t>
         </is>
       </c>
       <c r="VK1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="VL1" s="1" t="inlineStr">
         <is>
-          <t>states</t>
+          <t>suburban</t>
         </is>
       </c>
       <c r="VM1" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>validity</t>
         </is>
       </c>
       <c r="VN1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>22.9</t>
         </is>
       </c>
       <c r="VO1" s="1" t="inlineStr">
         <is>
-          <t>third</t>
+          <t>257</t>
         </is>
       </c>
       <c r="VP1" s="1" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>absence</t>
         </is>
       </c>
       <c r="VQ1" s="1" t="inlineStr">
         <is>
-          <t>united</t>
+          <t>also</t>
         </is>
       </c>
       <c r="VR1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>americans</t>
         </is>
       </c>
       <c r="VS1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>assessment</t>
         </is>
       </c>
       <c r="VT1" s="1" t="inlineStr">
         <is>
-          <t>additionally</t>
+          <t>chi-square</t>
         </is>
       </c>
       <c r="VU1" s="1" t="inlineStr">
         <is>
-          <t>challenge</t>
+          <t>concurrent</t>
         </is>
       </c>
       <c r="VV1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>determine</t>
         </is>
       </c>
       <c r="VW1" s="1" t="inlineStr">
         <is>
-          <t>counterparts</t>
+          <t>discover</t>
         </is>
       </c>
       <c r="VX1" s="1" t="inlineStr">
         <is>
-          <t>differed</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="VY1" s="1" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="VZ1" s="1" t="inlineStr">
         <is>
-          <t>discussed</t>
+          <t>examine</t>
         </is>
       </c>
       <c r="WA1" s="1" t="inlineStr">
         <is>
-          <t>elementary</t>
+          <t>fifth</t>
         </is>
       </c>
       <c r="WB1" s="1" t="inlineStr">
         <is>
-          <t>enjoyable</t>
+          <t>fourth</t>
         </is>
       </c>
       <c r="WC1" s="1" t="inlineStr">
         <is>
-          <t>evidence</t>
+          <t>grade</t>
         </is>
       </c>
       <c r="WD1" s="1" t="inlineStr">
         <is>
-          <t>frequently</t>
+          <t>indians</t>
         </is>
       </c>
       <c r="WE1" s="1" t="inlineStr">
         <is>
-          <t>instrument</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="WF1" s="1" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>investigated</t>
         </is>
       </c>
       <c r="WG1" s="1" t="inlineStr">
         <is>
-          <t>less</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="WH1" s="1" t="inlineStr">
         <is>
-          <t>middle</t>
+          <t>main</t>
         </is>
       </c>
       <c r="WI1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>manova</t>
         </is>
       </c>
       <c r="WJ1" s="1" t="inlineStr">
         <is>
-          <t>my</t>
+          <t>matrices</t>
         </is>
       </c>
       <c r="WK1" s="1" t="inlineStr">
         <is>
-          <t>peers</t>
+          <t>mexican</t>
         </is>
       </c>
       <c r="WL1" s="1" t="inlineStr">
         <is>
-          <t>perceptions</t>
+          <t>minority</t>
         </is>
       </c>
       <c r="WM1" s="1" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>navajo</t>
         </is>
       </c>
       <c r="WN1" s="1" t="inlineStr">
         <is>
-          <t>suburban</t>
+          <t>predominantly</t>
         </is>
       </c>
       <c r="WO1" s="1" t="inlineStr">
         <is>
-          <t>validity</t>
+          <t>progressive</t>
         </is>
       </c>
       <c r="WP1" s="1" t="inlineStr">
         <is>
-          <t>22.9</t>
+          <t>promote</t>
         </is>
       </c>
       <c r="WQ1" s="1" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>purposes</t>
         </is>
       </c>
       <c r="WR1" s="1" t="inlineStr">
         <is>
-          <t>absence</t>
+          <t>raven</t>
         </is>
       </c>
       <c r="WS1" s="1" t="inlineStr">
         <is>
-          <t>also</t>
+          <t>reducing</t>
         </is>
       </c>
       <c r="WT1" s="1" t="inlineStr">
         <is>
-          <t>americans</t>
+          <t>resulted</t>
         </is>
       </c>
       <c r="WU1" s="1" t="inlineStr">
         <is>
-          <t>assessment</t>
+          <t>revealed</t>
         </is>
       </c>
       <c r="WV1" s="1" t="inlineStr">
         <is>
-          <t>chi-square</t>
+          <t>second</t>
         </is>
       </c>
       <c r="WW1" s="1" t="inlineStr">
         <is>
-          <t>concurrent</t>
+          <t>under-represented</t>
         </is>
       </c>
       <c r="WX1" s="1" t="inlineStr">
         <is>
-          <t>determine</t>
+          <t>well</t>
         </is>
       </c>
       <c r="WY1" s="1" t="inlineStr">
         <is>
-          <t>discover</t>
+          <t>10</t>
         </is>
       </c>
       <c r="WZ1" s="1" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>applied</t>
         </is>
       </c>
       <c r="XA1" s="1" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>articulation</t>
         </is>
       </c>
       <c r="XB1" s="1" t="inlineStr">
         <is>
-          <t>examine</t>
+          <t>catalyst</t>
         </is>
       </c>
       <c r="XC1" s="1" t="inlineStr">
         <is>
-          <t>fifth</t>
+          <t>competencies</t>
         </is>
       </c>
       <c r="XD1" s="1" t="inlineStr">
         <is>
-          <t>fourth</t>
+          <t>conducted</t>
         </is>
       </c>
       <c r="XE1" s="1" t="inlineStr">
         <is>
-          <t>grade</t>
+          <t>consultation</t>
         </is>
       </c>
       <c r="XF1" s="1" t="inlineStr">
         <is>
-          <t>indians</t>
+          <t>consulted</t>
         </is>
       </c>
       <c r="XG1" s="1" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>consulting</t>
         </is>
       </c>
       <c r="XH1" s="1" t="inlineStr">
         <is>
-          <t>investigated</t>
+          <t>delivery</t>
         </is>
       </c>
       <c r="XI1" s="1" t="inlineStr">
         <is>
-          <t>kindergarten</t>
+          <t>district</t>
         </is>
       </c>
       <c r="XJ1" s="1" t="inlineStr">
         <is>
-          <t>main</t>
+          <t>effective</t>
         </is>
       </c>
       <c r="XK1" s="1" t="inlineStr">
         <is>
-          <t>manova</t>
+          <t>entire</t>
         </is>
       </c>
       <c r="XL1" s="1" t="inlineStr">
         <is>
-          <t>matrices</t>
+          <t>indicate</t>
         </is>
       </c>
       <c r="XM1" s="1" t="inlineStr">
         <is>
-          <t>mexican</t>
+          <t>initiated</t>
         </is>
       </c>
       <c r="XN1" s="1" t="inlineStr">
         <is>
-          <t>minority</t>
+          <t>learners</t>
         </is>
       </c>
       <c r="XO1" s="1" t="inlineStr">
         <is>
-          <t>navajo</t>
+          <t>led</t>
         </is>
       </c>
       <c r="XP1" s="1" t="inlineStr">
         <is>
-          <t>predominantly</t>
+          <t>model</t>
         </is>
       </c>
       <c r="XQ1" s="1" t="inlineStr">
         <is>
-          <t>progressive</t>
+          <t>nature</t>
         </is>
       </c>
       <c r="XR1" s="1" t="inlineStr">
         <is>
-          <t>promote</t>
+          <t>pilot</t>
         </is>
       </c>
       <c r="XS1" s="1" t="inlineStr">
         <is>
-          <t>purposes</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="XT1" s="1" t="inlineStr">
         <is>
-          <t>raven</t>
+          <t>providing</t>
         </is>
       </c>
       <c r="XU1" s="1" t="inlineStr">
         <is>
-          <t>reducing</t>
+          <t>recent</t>
         </is>
       </c>
       <c r="XV1" s="1" t="inlineStr">
         <is>
-          <t>resulted</t>
+          <t>redefined</t>
         </is>
       </c>
       <c r="XW1" s="1" t="inlineStr">
         <is>
-          <t>revealed</t>
+          <t>resource</t>
         </is>
       </c>
       <c r="XX1" s="1" t="inlineStr">
         <is>
-          <t>second</t>
+          <t>service</t>
         </is>
       </c>
       <c r="XY1" s="1" t="inlineStr">
         <is>
-          <t>under-represented</t>
+          <t>specialist</t>
         </is>
       </c>
       <c r="XZ1" s="1" t="inlineStr">
         <is>
-          <t>well</t>
+          <t>spill-over</t>
         </is>
       </c>
       <c r="YA1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>two-year</t>
         </is>
       </c>
       <c r="YB1" s="1" t="inlineStr">
         <is>
-          <t>applied</t>
+          <t>g-factor</t>
         </is>
       </c>
       <c r="YC1" s="1" t="inlineStr">
         <is>
-          <t>articulation</t>
+          <t>mental</t>
         </is>
       </c>
       <c r="YD1" s="1" t="inlineStr">
         <is>
-          <t>catalyst</t>
+          <t>science</t>
         </is>
       </c>
       <c r="YE1" s="1" t="inlineStr">
         <is>
-          <t>competencies</t>
+          <t>accepted</t>
         </is>
       </c>
       <c r="YF1" s="1" t="inlineStr">
         <is>
-          <t>conducted</t>
+          <t>according</t>
         </is>
       </c>
       <c r="YG1" s="1" t="inlineStr">
         <is>
-          <t>consultation</t>
+          <t>actual</t>
         </is>
       </c>
       <c r="YH1" s="1" t="inlineStr">
         <is>
-          <t>consulted</t>
+          <t>analyses</t>
         </is>
       </c>
       <c r="YI1" s="1" t="inlineStr">
         <is>
-          <t>consulting</t>
+          <t>analysis</t>
         </is>
       </c>
       <c r="YJ1" s="1" t="inlineStr">
         <is>
-          <t>delivery</t>
+          <t>analysts</t>
         </is>
       </c>
       <c r="YK1" s="1" t="inlineStr">
         <is>
-          <t>district</t>
+          <t>availability</t>
         </is>
       </c>
       <c r="YL1" s="1" t="inlineStr">
         <is>
-          <t>effective</t>
+          <t>benchmarks</t>
         </is>
       </c>
       <c r="YM1" s="1" t="inlineStr">
         <is>
-          <t>entire</t>
+          <t>bridge</t>
         </is>
       </c>
       <c r="YN1" s="1" t="inlineStr">
         <is>
-          <t>indicate</t>
+          <t>characteristics</t>
         </is>
       </c>
       <c r="YO1" s="1" t="inlineStr">
         <is>
-          <t>initiated</t>
+          <t>continued</t>
         </is>
       </c>
       <c r="YP1" s="1" t="inlineStr">
         <is>
-          <t>learners</t>
+          <t>continues</t>
         </is>
       </c>
       <c r="YQ1" s="1" t="inlineStr">
         <is>
-          <t>led</t>
+          <t>correlations</t>
         </is>
       </c>
       <c r="YR1" s="1" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>dealing</t>
         </is>
       </c>
       <c r="YS1" s="1" t="inlineStr">
         <is>
-          <t>nature</t>
+          <t>designated</t>
         </is>
       </c>
       <c r="YT1" s="1" t="inlineStr">
         <is>
-          <t>pilot</t>
+          <t>disconnect</t>
         </is>
       </c>
       <c r="YU1" s="1" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>distribution</t>
         </is>
       </c>
       <c r="YV1" s="1" t="inlineStr">
         <is>
-          <t>providing</t>
+          <t>districts</t>
         </is>
       </c>
       <c r="YW1" s="1" t="inlineStr">
         <is>
-          <t>recent</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="YX1" s="1" t="inlineStr">
         <is>
-          <t>redefined</t>
+          <t>existence</t>
         </is>
       </c>
       <c r="YY1" s="1" t="inlineStr">
         <is>
-          <t>resource</t>
+          <t>funding</t>
         </is>
       </c>
       <c r="YZ1" s="1" t="inlineStr">
         <is>
-          <t>service</t>
+          <t>gap</t>
         </is>
       </c>
       <c r="ZA1" s="1" t="inlineStr">
         <is>
-          <t>specialist</t>
+          <t>generally</t>
         </is>
       </c>
       <c r="ZB1" s="1" t="inlineStr">
         <is>
-          <t>spill-over</t>
+          <t>help</t>
         </is>
       </c>
       <c r="ZC1" s="1" t="inlineStr">
         <is>
-          <t>two-year</t>
+          <t>inequities</t>
         </is>
       </c>
       <c r="ZD1" s="1" t="inlineStr">
         <is>
-          <t>g-factor</t>
+          <t>inputs</t>
         </is>
       </c>
       <c r="ZE1" s="1" t="inlineStr">
         <is>
-          <t>mental</t>
+          <t>intoducing</t>
         </is>
       </c>
       <c r="ZF1" s="1" t="inlineStr">
         <is>
-          <t>science</t>
+          <t>like</t>
         </is>
       </c>
       <c r="ZG1" s="1" t="inlineStr">
         <is>
-          <t>accepted</t>
+          <t>little</t>
         </is>
       </c>
       <c r="ZH1" s="1" t="inlineStr">
         <is>
-          <t>according</t>
+          <t>maintain</t>
         </is>
       </c>
       <c r="ZI1" s="1" t="inlineStr">
         <is>
-          <t>actual</t>
+          <t>mandates</t>
         </is>
       </c>
       <c r="ZJ1" s="1" t="inlineStr">
         <is>
-          <t>analyses</t>
+          <t>measuring</t>
         </is>
       </c>
       <c r="ZK1" s="1" t="inlineStr">
         <is>
-          <t>analysis</t>
+          <t>narrow</t>
         </is>
       </c>
       <c r="ZL1" s="1" t="inlineStr">
         <is>
-          <t>analysts</t>
+          <t>objective</t>
         </is>
       </c>
       <c r="ZM1" s="1" t="inlineStr">
         <is>
-          <t>availability</t>
+          <t>opportunities</t>
         </is>
       </c>
       <c r="ZN1" s="1" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="ZO1" s="1" t="inlineStr">
         <is>
-          <t>benchmarks</t>
+          <t>outcomes</t>
         </is>
       </c>
       <c r="ZP1" s="1" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>paid</t>
         </is>
       </c>
       <c r="ZQ1" s="1" t="inlineStr">
         <is>
-          <t>characteristics</t>
+          <t>performed</t>
         </is>
       </c>
       <c r="ZR1" s="1" t="inlineStr">
         <is>
-          <t>continued</t>
+          <t>personnel</t>
         </is>
       </c>
       <c r="ZS1" s="1" t="inlineStr">
         <is>
-          <t>continues</t>
+          <t>policies</t>
         </is>
       </c>
       <c r="ZT1" s="1" t="inlineStr">
         <is>
-          <t>correlations</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="ZU1" s="1" t="inlineStr">
         <is>
-          <t>dealing</t>
+          <t>population</t>
         </is>
       </c>
       <c r="ZV1" s="1" t="inlineStr">
         <is>
-          <t>designated</t>
+          <t>presence</t>
         </is>
       </c>
       <c r="ZW1" s="1" t="inlineStr">
         <is>
-          <t>disconnect</t>
+          <t>primarily</t>
         </is>
       </c>
       <c r="ZX1" s="1" t="inlineStr">
         <is>
-          <t>distribution</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="ZY1" s="1" t="inlineStr">
         <is>
-          <t>districts</t>
+          <t>relatively</t>
         </is>
       </c>
       <c r="ZZ1" s="1" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="AAA1" s="1" t="inlineStr">
         <is>
-          <t>existence</t>
+          <t>set</t>
         </is>
       </c>
       <c r="AAB1" s="1" t="inlineStr">
         <is>
-          <t>funding</t>
+          <t>spending</t>
         </is>
       </c>
       <c r="AAC1" s="1" t="inlineStr">
         <is>
-          <t>gap</t>
+          <t>texas</t>
         </is>
       </c>
       <c r="AAD1" s="1" t="inlineStr">
         <is>
-          <t>generally</t>
+          <t>tools</t>
         </is>
       </c>
       <c r="AAE1" s="1" t="inlineStr">
         <is>
-          <t>help</t>
+          <t>unacceptable</t>
         </is>
       </c>
       <c r="AAF1" s="1" t="inlineStr">
         <is>
-          <t>inequities</t>
+          <t>vast</t>
         </is>
       </c>
       <c r="AAG1" s="1" t="inlineStr">
         <is>
-          <t>inputs</t>
+          <t>wealth</t>
         </is>
       </c>
       <c r="AAH1" s="1" t="inlineStr">
         <is>
-          <t>intoducing</t>
+          <t>written</t>
         </is>
       </c>
       <c r="AAI1" s="1" t="inlineStr">
         <is>
-          <t>like</t>
+          <t>124-139</t>
         </is>
       </c>
       <c r="AAJ1" s="1" t="inlineStr">
         <is>
-          <t>little</t>
+          <t>140-154</t>
         </is>
       </c>
       <c r="AAK1" s="1" t="inlineStr">
         <is>
-          <t>maintain</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AAL1" s="1" t="inlineStr">
         <is>
-          <t>mandates</t>
+          <t>adjusted</t>
         </is>
       </c>
       <c r="AAM1" s="1" t="inlineStr">
         <is>
-          <t>measuring</t>
+          <t>attentional</t>
         </is>
       </c>
       <c r="AAN1" s="1" t="inlineStr">
         <is>
-          <t>narrow</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="AAO1" s="1" t="inlineStr">
         <is>
-          <t>objective</t>
+          <t>behavioral</t>
         </is>
       </c>
       <c r="AAP1" s="1" t="inlineStr">
         <is>
-          <t>opportunities</t>
+          <t>behaviors</t>
         </is>
       </c>
       <c r="AAQ1" s="1" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="AAR1" s="1" t="inlineStr">
         <is>
-          <t>outcomes</t>
+          <t>cognitive</t>
         </is>
       </c>
       <c r="AAS1" s="1" t="inlineStr">
         <is>
-          <t>paid</t>
+          <t>demonstrate</t>
         </is>
       </c>
       <c r="AAT1" s="1" t="inlineStr">
         <is>
-          <t>performed</t>
+          <t>disabled</t>
         </is>
       </c>
       <c r="AAU1" s="1" t="inlineStr">
         <is>
-          <t>personnel</t>
+          <t>exhibit</t>
         </is>
       </c>
       <c r="AAV1" s="1" t="inlineStr">
         <is>
-          <t>policies</t>
+          <t>exhibiting</t>
         </is>
       </c>
       <c r="AAW1" s="1" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>heterogeneity</t>
         </is>
       </c>
       <c r="AAX1" s="1" t="inlineStr">
         <is>
-          <t>population</t>
+          <t>heterogeneous</t>
         </is>
       </c>
       <c r="AAY1" s="1" t="inlineStr">
         <is>
-          <t>presence</t>
+          <t>history</t>
         </is>
       </c>
       <c r="AAZ1" s="1" t="inlineStr">
         <is>
-          <t>primarily</t>
+          <t>inconsistent</t>
         </is>
       </c>
       <c r="ABA1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>iq</t>
         </is>
       </c>
       <c r="ABB1" s="1" t="inlineStr">
         <is>
-          <t>relatively</t>
+          <t>levels</t>
         </is>
       </c>
       <c r="ABC1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>low</t>
         </is>
       </c>
       <c r="ABD1" s="1" t="inlineStr">
         <is>
-          <t>set</t>
+          <t>lower</t>
         </is>
       </c>
       <c r="ABE1" s="1" t="inlineStr">
         <is>
-          <t>spending</t>
+          <t>nongifted</t>
         </is>
       </c>
       <c r="ABF1" s="1" t="inlineStr">
         <is>
-          <t>texas</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="ABG1" s="1" t="inlineStr">
         <is>
-          <t>there</t>
+          <t>portraying</t>
         </is>
       </c>
       <c r="ABH1" s="1" t="inlineStr">
         <is>
-          <t>tools</t>
+          <t>resembling</t>
         </is>
       </c>
       <c r="ABI1" s="1" t="inlineStr">
         <is>
-          <t>unacceptable</t>
+          <t>view</t>
         </is>
       </c>
       <c r="ABJ1" s="1" t="inlineStr">
         <is>
-          <t>vast</t>
+          <t>advisement</t>
         </is>
       </c>
       <c r="ABK1" s="1" t="inlineStr">
         <is>
-          <t>wealth</t>
+          <t>broader</t>
         </is>
       </c>
       <c r="ABL1" s="1" t="inlineStr">
         <is>
-          <t>written</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="ABM1" s="1" t="inlineStr">
         <is>
-          <t>124-139</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="ABN1" s="1" t="inlineStr">
         <is>
-          <t>140-154</t>
+          <t>evaluating</t>
         </is>
       </c>
       <c r="ABO1" s="1" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>fostered</t>
         </is>
       </c>
       <c r="ABP1" s="1" t="inlineStr">
         <is>
-          <t>adjusted</t>
+          <t>generalized</t>
         </is>
       </c>
       <c r="ABQ1" s="1" t="inlineStr">
         <is>
-          <t>attentional</t>
+          <t>graduate</t>
         </is>
       </c>
       <c r="ABR1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>graphic</t>
         </is>
       </c>
       <c r="ABS1" s="1" t="inlineStr">
         <is>
-          <t>behavioral</t>
+          <t>individual</t>
         </is>
       </c>
       <c r="ABT1" s="1" t="inlineStr">
         <is>
-          <t>behaviors</t>
+          <t>inform</t>
         </is>
       </c>
       <c r="ABU1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>information</t>
         </is>
       </c>
       <c r="ABV1" s="1" t="inlineStr">
         <is>
-          <t>cognitive</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="ABW1" s="1" t="inlineStr">
         <is>
-          <t>demonstrate</t>
+          <t>management</t>
         </is>
       </c>
       <c r="ABX1" s="1" t="inlineStr">
         <is>
-          <t>disabled</t>
+          <t>map</t>
         </is>
       </c>
       <c r="ABY1" s="1" t="inlineStr">
         <is>
-          <t>exhibit</t>
+          <t>maps</t>
         </is>
       </c>
       <c r="ABZ1" s="1" t="inlineStr">
         <is>
-          <t>exhibiting</t>
+          <t>metacognitive</t>
         </is>
       </c>
       <c r="ACA1" s="1" t="inlineStr">
         <is>
-          <t>heterogeneity</t>
+          <t>organizers</t>
         </is>
       </c>
       <c r="ACB1" s="1" t="inlineStr">
         <is>
-          <t>heterogeneous</t>
+          <t>professional</t>
         </is>
       </c>
       <c r="ACC1" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>relative</t>
         </is>
       </c>
       <c r="ACD1" s="1" t="inlineStr">
         <is>
-          <t>inconsistent</t>
+          <t>reliable</t>
         </is>
       </c>
       <c r="ACE1" s="1" t="inlineStr">
         <is>
-          <t>iq</t>
+          <t>report</t>
         </is>
       </c>
       <c r="ACF1" s="1" t="inlineStr">
         <is>
-          <t>levels</t>
+          <t>standards</t>
         </is>
       </c>
       <c r="ACG1" s="1" t="inlineStr">
         <is>
-          <t>low</t>
+          <t>structural</t>
         </is>
       </c>
       <c r="ACH1" s="1" t="inlineStr">
         <is>
-          <t>lower</t>
+          <t>structuring</t>
         </is>
       </c>
       <c r="ACI1" s="1" t="inlineStr">
         <is>
-          <t>nongifted</t>
+          <t>tracking</t>
         </is>
       </c>
       <c r="ACJ1" s="1" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>variously</t>
         </is>
       </c>
       <c r="ACK1" s="1" t="inlineStr">
         <is>
-          <t>portraying</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="ACL1" s="1" t="inlineStr">
         <is>
-          <t>resembling</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="ACM1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>398</t>
         </is>
       </c>
       <c r="ACN1" s="1" t="inlineStr">
         <is>
-          <t>we</t>
+          <t>age</t>
         </is>
       </c>
       <c r="ACO1" s="1" t="inlineStr">
         <is>
-          <t>advisement</t>
+          <t>assessed</t>
         </is>
       </c>
       <c r="ACP1" s="1" t="inlineStr">
         <is>
-          <t>broader</t>
+          <t>autonomous</t>
         </is>
       </c>
       <c r="ACQ1" s="1" t="inlineStr">
         <is>
-          <t>concept</t>
+          <t>chinese</t>
         </is>
       </c>
       <c r="ACR1" s="1" t="inlineStr">
         <is>
-          <t>documentation</t>
+          <t>common</t>
         </is>
       </c>
       <c r="ACS1" s="1" t="inlineStr">
         <is>
-          <t>evaluating</t>
+          <t>comparing</t>
         </is>
       </c>
       <c r="ACT1" s="1" t="inlineStr">
         <is>
-          <t>fostered</t>
+          <t>exchanges</t>
         </is>
       </c>
       <c r="ACU1" s="1" t="inlineStr">
         <is>
-          <t>generalized</t>
+          <t>games</t>
         </is>
       </c>
       <c r="ACV1" s="1" t="inlineStr">
         <is>
-          <t>graduate</t>
+          <t>hong</t>
         </is>
       </c>
       <c r="ACW1" s="1" t="inlineStr">
         <is>
-          <t>graphic</t>
+          <t>interpersonal</t>
         </is>
       </c>
       <c r="ACX1" s="1" t="inlineStr">
         <is>
-          <t>individual</t>
+          <t>interpretable</t>
         </is>
       </c>
       <c r="ACY1" s="1" t="inlineStr">
         <is>
-          <t>inform</t>
+          <t>inventory</t>
         </is>
       </c>
       <c r="ACZ1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>kong</t>
         </is>
       </c>
       <c r="ADA1" s="1" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>non-chinese</t>
         </is>
       </c>
       <c r="ADB1" s="1" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>plausible</t>
         </is>
       </c>
       <c r="ADC1" s="1" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>preference</t>
         </is>
       </c>
       <c r="ADD1" s="1" t="inlineStr">
         <is>
-          <t>maps</t>
+          <t>preferences</t>
         </is>
       </c>
       <c r="ADE1" s="1" t="inlineStr">
         <is>
-          <t>metacognitive</t>
+          <t>preferred</t>
         </is>
       </c>
       <c r="ADF1" s="1" t="inlineStr">
         <is>
-          <t>organizers</t>
+          <t>present</t>
         </is>
       </c>
       <c r="ADG1" s="1" t="inlineStr">
         <is>
-          <t>professional</t>
+          <t>regarding</t>
         </is>
       </c>
       <c r="ADH1" s="1" t="inlineStr">
         <is>
-          <t>relative</t>
+          <t>related</t>
         </is>
       </c>
       <c r="ADI1" s="1" t="inlineStr">
         <is>
-          <t>reliable</t>
+          <t>renzulli</t>
         </is>
       </c>
       <c r="ADJ1" s="1" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>rizza</t>
         </is>
       </c>
       <c r="ADK1" s="1" t="inlineStr">
         <is>
-          <t>standards</t>
+          <t>role-play</t>
         </is>
       </c>
       <c r="ADL1" s="1" t="inlineStr">
         <is>
-          <t>structural</t>
+          <t>smith</t>
         </is>
       </c>
       <c r="ADM1" s="1" t="inlineStr">
         <is>
-          <t>structuring</t>
+          <t>structured</t>
         </is>
       </c>
       <c r="ADN1" s="1" t="inlineStr">
         <is>
-          <t>tracking</t>
+          <t>style</t>
         </is>
       </c>
       <c r="ADO1" s="1" t="inlineStr">
         <is>
-          <t>variously</t>
+          <t>styles</t>
         </is>
       </c>
       <c r="ADP1" s="1" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>version</t>
         </is>
       </c>
       <c r="ADQ1" s="1" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>academics</t>
         </is>
       </c>
       <c r="ADR1" s="1" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>achievements</t>
         </is>
       </c>
       <c r="ADS1" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>active</t>
         </is>
       </c>
       <c r="ADT1" s="1" t="inlineStr">
         <is>
-          <t>assessed</t>
+          <t>activity</t>
         </is>
       </c>
       <c r="ADU1" s="1" t="inlineStr">
         <is>
-          <t>autonomous</t>
+          <t>aptitudes</t>
         </is>
       </c>
       <c r="ADV1" s="1" t="inlineStr">
         <is>
-          <t>chinese</t>
+          <t>athletics</t>
         </is>
       </c>
       <c r="ADW1" s="1" t="inlineStr">
         <is>
-          <t>common</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="ADX1" s="1" t="inlineStr">
         <is>
-          <t>comparing</t>
+          <t>biographical</t>
         </is>
       </c>
       <c r="ADY1" s="1" t="inlineStr">
         <is>
-          <t>exchanges</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="ADZ1" s="1" t="inlineStr">
         <is>
-          <t>games</t>
+          <t>cumulative</t>
         </is>
       </c>
       <c r="AEA1" s="1" t="inlineStr">
         <is>
-          <t>hong</t>
+          <t>currently</t>
         </is>
       </c>
       <c r="AEB1" s="1" t="inlineStr">
         <is>
-          <t>interpersonal</t>
+          <t>describes</t>
         </is>
       </c>
       <c r="AEC1" s="1" t="inlineStr">
         <is>
-          <t>interpretable</t>
+          <t>devoid</t>
         </is>
       </c>
       <c r="AED1" s="1" t="inlineStr">
         <is>
-          <t>inventory</t>
+          <t>disciplines</t>
         </is>
       </c>
       <c r="AEE1" s="1" t="inlineStr">
         <is>
-          <t>kong</t>
+          <t>domains</t>
         </is>
       </c>
       <c r="AEF1" s="1" t="inlineStr">
         <is>
-          <t>non-chinese</t>
+          <t>e.g.</t>
         </is>
       </c>
       <c r="AEG1" s="1" t="inlineStr">
         <is>
-          <t>plausible</t>
+          <t>expectations/benchmarks</t>
         </is>
       </c>
       <c r="AEH1" s="1" t="inlineStr">
         <is>
-          <t>preference</t>
+          <t>expertise</t>
         </is>
       </c>
       <c r="AEI1" s="1" t="inlineStr">
         <is>
-          <t>preferences</t>
+          <t>facilitating</t>
         </is>
       </c>
       <c r="AEJ1" s="1" t="inlineStr">
         <is>
-          <t>preferred</t>
+          <t>future</t>
         </is>
       </c>
       <c r="AEK1" s="1" t="inlineStr">
         <is>
-          <t>present</t>
+          <t>high-end</t>
         </is>
       </c>
       <c r="AEL1" s="1" t="inlineStr">
         <is>
-          <t>regarding</t>
+          <t>highlighted</t>
         </is>
       </c>
       <c r="AEM1" s="1" t="inlineStr">
         <is>
-          <t>related</t>
+          <t>home</t>
         </is>
       </c>
       <c r="AEN1" s="1" t="inlineStr">
         <is>
-          <t>renzulli</t>
+          <t>honors</t>
         </is>
       </c>
       <c r="AEO1" s="1" t="inlineStr">
         <is>
-          <t>rizza</t>
+          <t>human</t>
         </is>
       </c>
       <c r="AEP1" s="1" t="inlineStr">
         <is>
-          <t>role-play</t>
+          <t>k-12</t>
         </is>
       </c>
       <c r="AEQ1" s="1" t="inlineStr">
         <is>
-          <t>smith</t>
+          <t>keeping</t>
         </is>
       </c>
       <c r="AER1" s="1" t="inlineStr">
         <is>
-          <t>structured</t>
+          <t>learner</t>
         </is>
       </c>
       <c r="AES1" s="1" t="inlineStr">
         <is>
-          <t>style</t>
+          <t>method</t>
         </is>
       </c>
       <c r="AET1" s="1" t="inlineStr">
         <is>
-          <t>styles</t>
+          <t>multiple</t>
         </is>
       </c>
       <c r="AEU1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>outstanding</t>
         </is>
       </c>
       <c r="AEV1" s="1" t="inlineStr">
         <is>
-          <t>academics</t>
+          <t>profile</t>
         </is>
       </c>
       <c r="AEW1" s="1" t="inlineStr">
         <is>
-          <t>achievements</t>
+          <t>range</t>
         </is>
       </c>
       <c r="AEX1" s="1" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>record</t>
         </is>
       </c>
       <c r="AEY1" s="1" t="inlineStr">
         <is>
-          <t>activity</t>
+          <t>serves</t>
         </is>
       </c>
       <c r="AEZ1" s="1" t="inlineStr">
         <is>
-          <t>aptitudes</t>
+          <t>synthesizes</t>
         </is>
       </c>
       <c r="AFA1" s="1" t="inlineStr">
         <is>
-          <t>athletics</t>
+          <t>translation</t>
         </is>
       </c>
       <c r="AFB1" s="1" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>valued</t>
         </is>
       </c>
       <c r="AFC1" s="1" t="inlineStr">
         <is>
-          <t>biographical</t>
+          <t>visually</t>
         </is>
       </c>
       <c r="AFD1" s="1" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>whether</t>
         </is>
       </c>
       <c r="AFE1" s="1" t="inlineStr">
         <is>
-          <t>cumulative</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AFF1" s="1" t="inlineStr">
         <is>
-          <t>currently</t>
+          <t>actions</t>
         </is>
       </c>
       <c r="AFG1" s="1" t="inlineStr">
         <is>
-          <t>describes</t>
+          <t>assigning</t>
         </is>
       </c>
       <c r="AFH1" s="1" t="inlineStr">
         <is>
-          <t>devoid</t>
+          <t>competition</t>
         </is>
       </c>
       <c r="AFI1" s="1" t="inlineStr">
         <is>
-          <t>disciplines</t>
+          <t>contacts</t>
         </is>
       </c>
       <c r="AFJ1" s="1" t="inlineStr">
         <is>
-          <t>domains</t>
+          <t>contrasting</t>
         </is>
       </c>
       <c r="AFK1" s="1" t="inlineStr">
         <is>
-          <t>e.g.</t>
+          <t>encourage</t>
         </is>
       </c>
       <c r="AFL1" s="1" t="inlineStr">
         <is>
-          <t>expectations/benchmarks</t>
+          <t>friendships</t>
         </is>
       </c>
       <c r="AFM1" s="1" t="inlineStr">
         <is>
-          <t>expertise</t>
+          <t>important</t>
         </is>
       </c>
       <c r="AFN1" s="1" t="inlineStr">
         <is>
-          <t>facilitating</t>
+          <t>learn</t>
         </is>
       </c>
       <c r="AFO1" s="1" t="inlineStr">
         <is>
-          <t>future</t>
+          <t>losers</t>
         </is>
       </c>
       <c r="AFP1" s="1" t="inlineStr">
         <is>
-          <t>high-end</t>
+          <t>maintained</t>
         </is>
       </c>
       <c r="AFQ1" s="1" t="inlineStr">
         <is>
-          <t>highlighted</t>
+          <t>methodology</t>
         </is>
       </c>
       <c r="AFR1" s="1" t="inlineStr">
         <is>
-          <t>home</t>
+          <t>plays</t>
         </is>
       </c>
       <c r="AFS1" s="1" t="inlineStr">
         <is>
-          <t>honors</t>
+          <t>simply</t>
         </is>
       </c>
       <c r="AFT1" s="1" t="inlineStr">
         <is>
-          <t>human</t>
+          <t>stories</t>
         </is>
       </c>
       <c r="AFU1" s="1" t="inlineStr">
         <is>
-          <t>k-12</t>
+          <t>sustaining</t>
         </is>
       </c>
       <c r="AFV1" s="1" t="inlineStr">
         <is>
-          <t>keeping</t>
+          <t>themes</t>
         </is>
       </c>
       <c r="AFW1" s="1" t="inlineStr">
         <is>
-          <t>learner</t>
+          <t>viewed</t>
         </is>
       </c>
       <c r="AFX1" s="1" t="inlineStr">
         <is>
-          <t>method</t>
+          <t>winners</t>
         </is>
       </c>
       <c r="AFY1" s="1" t="inlineStr">
         <is>
-          <t>multiple</t>
+          <t>word</t>
         </is>
       </c>
       <c r="AFZ1" s="1" t="inlineStr">
         <is>
-          <t>outstanding</t>
+          <t>meets</t>
         </is>
       </c>
       <c r="AGA1" s="1" t="inlineStr">
         <is>
-          <t>profile</t>
+          <t>reform</t>
         </is>
       </c>
       <c r="AGB1" s="1" t="inlineStr">
         <is>
-          <t>range</t>
+          <t>wars</t>
         </is>
       </c>
       <c r="AGC1" s="1" t="inlineStr">
         <is>
-          <t>record</t>
+          <t>guidance</t>
         </is>
       </c>
       <c r="AGD1" s="1" t="inlineStr">
         <is>
-          <t>serves</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="AGE1" s="1" t="inlineStr">
-        <is>
-          <t>synthesizes</t>
-        </is>
-      </c>
-      <c r="AGF1" s="1" t="inlineStr">
-        <is>
-          <t>translation</t>
-        </is>
-      </c>
-      <c r="AGG1" s="1" t="inlineStr">
-        <is>
-          <t>valued</t>
-        </is>
-      </c>
-      <c r="AGH1" s="1" t="inlineStr">
-        <is>
-          <t>visually</t>
-        </is>
-      </c>
-      <c r="AGI1" s="1" t="inlineStr">
-        <is>
-          <t>whether</t>
-        </is>
-      </c>
-      <c r="AGJ1" s="1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AGK1" s="1" t="inlineStr">
-        <is>
-          <t>actions</t>
-        </is>
-      </c>
-      <c r="AGL1" s="1" t="inlineStr">
-        <is>
-          <t>assigning</t>
-        </is>
-      </c>
-      <c r="AGM1" s="1" t="inlineStr">
-        <is>
-          <t>competition</t>
-        </is>
-      </c>
-      <c r="AGN1" s="1" t="inlineStr">
-        <is>
-          <t>contacts</t>
-        </is>
-      </c>
-      <c r="AGO1" s="1" t="inlineStr">
-        <is>
-          <t>contrasting</t>
-        </is>
-      </c>
-      <c r="AGP1" s="1" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="AGQ1" s="1" t="inlineStr">
-        <is>
-          <t>friendships</t>
-        </is>
-      </c>
-      <c r="AGR1" s="1" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="AGS1" s="1" t="inlineStr">
-        <is>
-          <t>learn</t>
-        </is>
-      </c>
-      <c r="AGT1" s="1" t="inlineStr">
-        <is>
-          <t>losers</t>
-        </is>
-      </c>
-      <c r="AGU1" s="1" t="inlineStr">
-        <is>
-          <t>maintained</t>
-        </is>
-      </c>
-      <c r="AGV1" s="1" t="inlineStr">
-        <is>
-          <t>methodology</t>
-        </is>
-      </c>
-      <c r="AGW1" s="1" t="inlineStr">
-        <is>
-          <t>plays</t>
-        </is>
-      </c>
-      <c r="AGX1" s="1" t="inlineStr">
-        <is>
-          <t>simply</t>
-        </is>
-      </c>
-      <c r="AGY1" s="1" t="inlineStr">
-        <is>
-          <t>some</t>
-        </is>
-      </c>
-      <c r="AGZ1" s="1" t="inlineStr">
-        <is>
-          <t>stories</t>
-        </is>
-      </c>
-      <c r="AHA1" s="1" t="inlineStr">
-        <is>
-          <t>sustaining</t>
-        </is>
-      </c>
-      <c r="AHB1" s="1" t="inlineStr">
-        <is>
-          <t>themes</t>
-        </is>
-      </c>
-      <c r="AHC1" s="1" t="inlineStr">
-        <is>
-          <t>viewed</t>
-        </is>
-      </c>
-      <c r="AHD1" s="1" t="inlineStr">
-        <is>
-          <t>winners</t>
-        </is>
-      </c>
-      <c r="AHE1" s="1" t="inlineStr">
-        <is>
-          <t>word</t>
-        </is>
-      </c>
-      <c r="AHF1" s="1" t="inlineStr">
-        <is>
-          <t>meets</t>
-        </is>
-      </c>
-      <c r="AHG1" s="1" t="inlineStr">
-        <is>
-          <t>reform</t>
-        </is>
-      </c>
-      <c r="AHH1" s="1" t="inlineStr">
-        <is>
-          <t>wars</t>
-        </is>
-      </c>
-      <c r="AHI1" s="1" t="inlineStr">
-        <is>
-          <t>being</t>
-        </is>
-      </c>
-      <c r="AHJ1" s="1" t="inlineStr">
-        <is>
-          <t>guidance</t>
-        </is>
-      </c>
-      <c r="AHK1" s="1" t="inlineStr">
-        <is>
-          <t>introduction</t>
-        </is>
-      </c>
-      <c r="AHL1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
@@ -4952,244 +4787,244 @@
         <v>0.23</v>
       </c>
       <c r="N2" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="O2" t="n">
         <v>0.11</v>
       </c>
       <c r="P2" t="n">
-        <v>0.11</v>
+        <v>0.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="R2" t="n">
         <v>0.11</v>
       </c>
       <c r="S2" t="n">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="T2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="X2" t="n">
         <v>0.38</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Y2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>0.27</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.3800000000000001</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.08</v>
       </c>
       <c r="BR2" t="n">
         <v>0.08</v>
       </c>
       <c r="BS2" t="n">
+        <v>0.9899999999999999</v>
+      </c>
+      <c r="BT2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.45</v>
       </c>
       <c r="BU2" t="n">
         <v>0.08</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.08</v>
+        <v>1.52</v>
       </c>
       <c r="BY2" t="n">
         <v>0.08</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.89</v>
+        <v>0.16</v>
       </c>
       <c r="CA2" t="n">
         <v>0.08</v>
       </c>
       <c r="CB2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="CC2" t="n">
         <v>0.08</v>
       </c>
-      <c r="CC2" t="n">
-        <v>0.24</v>
-      </c>
       <c r="CD2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="CE2" t="n">
         <v>0.08</v>
       </c>
-      <c r="CE2" t="n">
-        <v>1.51</v>
-      </c>
       <c r="CF2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CI2" t="n">
         <v>0.08</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.3100000000000001</v>
       </c>
       <c r="CJ2" t="n">
         <v>0.08</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.28</v>
+        <v>0.08</v>
       </c>
       <c r="CL2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="CM2" t="n">
         <v>0.08</v>
       </c>
-      <c r="CM2" t="n">
-        <v>1.22</v>
-      </c>
       <c r="CN2" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="CP2" t="n">
         <v>0.08</v>
@@ -5201,379 +5036,379 @@
         <v>0.08</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.08</v>
+        <v>0.43</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="CX2" t="n">
         <v>0.08</v>
       </c>
       <c r="CY2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="DA2" t="n">
         <v>0.08</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DB2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GH2" t="n">
         <v>0.25</v>
       </c>
-      <c r="DA2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="DC2" t="n">
+      <c r="GI2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GL2" t="n">
         <v>0.32</v>
       </c>
-      <c r="DD2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DF2" t="n">
+      <c r="GM2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GU2" t="n">
         <v>0.24</v>
       </c>
-      <c r="DG2" t="n">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="DH2" t="n">
+      <c r="GV2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HL2" t="n">
         <v>0.24</v>
       </c>
-      <c r="DI2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="EI2" t="n">
+      <c r="HM2" t="n">
         <v>0.22</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="HN2" t="n">
         <v>0.07000000000000001</v>
@@ -5582,85 +5417,85 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="HP2" t="n">
-        <v>0.26</v>
+        <v>0.13</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="HR2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="HT2" t="n">
         <v>0.14</v>
       </c>
-      <c r="HS2" t="n">
+      <c r="HU2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="HV2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="HT2" t="n">
+      <c r="HW2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="HZ2" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.14</v>
       </c>
       <c r="IA2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="IC2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ID2" t="n">
         <v>0.14</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.29</v>
       </c>
       <c r="IE2" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="IG2" t="n">
         <v>0.14</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.21</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="II2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="IM2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IN2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="IK2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>0.14</v>
-      </c>
       <c r="IO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="IQ2" t="n">
         <v>0.14</v>
@@ -5669,85 +5504,85 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.12</v>
+        <v>0.43</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.22</v>
+        <v>0.71</v>
       </c>
       <c r="IZ2" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.14</v>
+        <v>0.38</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="JF2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="JG2" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="JH2" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.6900000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.8700000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="JO2" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="JQ2" t="n">
-        <v>0.35</v>
+        <v>0.23</v>
       </c>
       <c r="JR2" t="n">
-        <v>2.13</v>
+        <v>0.2</v>
       </c>
       <c r="JS2" t="n">
-        <v>2.13</v>
+        <v>0.2</v>
       </c>
       <c r="JT2" t="n">
         <v>0.2</v>
@@ -5756,259 +5591,259 @@
         <v>0.2</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.36</v>
+        <v>0.51</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="JX2" t="n">
         <v>0.2</v>
       </c>
       <c r="JY2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="JZ2" t="n">
         <v>0.23</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="KA2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>0.6200000000000001</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="MD2" t="n">
         <v>0.2</v>
       </c>
-      <c r="KA2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KB2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KC2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="KD2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KE2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KF2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KG2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KH2" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="KI2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="KJ2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="KK2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="KL2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="KM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KP2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="KQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KR2" t="n">
+      <c r="ME2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="MP2" t="n">
         <v>0.21</v>
       </c>
-      <c r="KS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KT2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="KU2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="KV2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="KW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="KY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="KZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LE2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="LF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LG2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="LI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LJ2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="LK2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="LL2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="LM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LN2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="LO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LP2" t="n">
+      <c r="MQ2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="MV2" t="n">
         <v>0.13</v>
       </c>
-      <c r="LQ2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="LR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LV2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LX2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MA2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="MB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MD2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="ME2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="MF2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="MG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MI2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="MJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ML2" t="n">
-        <v>0.6100000000000001</v>
-      </c>
-      <c r="MM2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="MN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MQ2" t="n">
-        <v>0.6799999999999999</v>
-      </c>
-      <c r="MR2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="MS2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="MT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="MV2" t="n">
-        <v>0.09</v>
-      </c>
       <c r="MW2" t="n">
-        <v>0.09</v>
+        <v>0.31</v>
       </c>
       <c r="MX2" t="n">
         <v>0.17</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.71</v>
+        <v>0.1</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="NC2" t="n">
         <v>0.1</v>
@@ -6017,79 +5852,79 @@
         <v>0.17</v>
       </c>
       <c r="NE2" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="NG2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="NI2" t="n">
         <v>0.1</v>
       </c>
-      <c r="NH2" t="n">
+      <c r="NJ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="NK2" t="n">
         <v>0.1</v>
       </c>
-      <c r="NI2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="NJ2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="NK2" t="n">
-        <v>0.33</v>
-      </c>
       <c r="NL2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="NM2" t="n">
         <v>0.1</v>
       </c>
-      <c r="NM2" t="n">
-        <v>0.13</v>
-      </c>
       <c r="NN2" t="n">
-        <v>0.31</v>
+        <v>0.1</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="NP2" t="n">
         <v>0.1</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="NR2" t="n">
         <v>0.1</v>
       </c>
       <c r="NS2" t="n">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="NU2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="NV2" t="n">
         <v>0.17</v>
-      </c>
-      <c r="NV2" t="n">
-        <v>0.1</v>
       </c>
       <c r="NW2" t="n">
         <v>0.1</v>
       </c>
       <c r="NX2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="NZ2" t="n">
         <v>0.17</v>
       </c>
-      <c r="NY2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="NZ2" t="n">
+      <c r="OA2" t="n">
         <v>0.1</v>
-      </c>
-      <c r="OA2" t="n">
-        <v>0.42</v>
       </c>
       <c r="OB2" t="n">
         <v>0.1</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="OD2" t="n">
         <v>0.1</v>
@@ -6098,82 +5933,82 @@
         <v>0.1</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.1</v>
+        <v>0.47</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.1</v>
+        <v>0.36</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.29</v>
+        <v>0.12</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.27</v>
+        <v>0.06</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="ON2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="OP2" t="n">
-        <v>0.21</v>
+        <v>0.06</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="OW2" t="n">
         <v>0.12</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="OZ2" t="n">
         <v>0.06</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.47</v>
+        <v>0.06</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="PF2" t="n">
         <v>0.06</v>
@@ -6182,10 +6017,10 @@
         <v>0.06</v>
       </c>
       <c r="PH2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="PI2" t="n">
         <v>0.3</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>0.06</v>
       </c>
       <c r="PJ2" t="n">
         <v>0.06</v>
@@ -6194,7 +6029,7 @@
         <v>0.06</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="PM2" t="n">
         <v>0.12</v>
@@ -6206,22 +6041,22 @@
         <v>0.06</v>
       </c>
       <c r="PP2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="PT2" t="n">
         <v>0.06</v>
       </c>
-      <c r="PQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="PR2" t="n">
+      <c r="PU2" t="n">
         <v>0.12</v>
-      </c>
-      <c r="PS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="PT2" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="PU2" t="n">
-        <v>0.06</v>
       </c>
       <c r="PV2" t="n">
         <v>0.06</v>
@@ -6236,91 +6071,91 @@
         <v>0.06</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="QA2" t="n">
         <v>0.06</v>
       </c>
       <c r="QB2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="QC2" t="n">
         <v>0.06</v>
       </c>
-      <c r="QC2" t="n">
-        <v>0.24</v>
-      </c>
       <c r="QD2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="QQ2" t="n">
         <v>0.3</v>
       </c>
-      <c r="QE2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QF2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QG2" t="n">
+      <c r="QR2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="QX2" t="n">
         <v>0.12</v>
       </c>
-      <c r="QH2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="QI2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QJ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QK2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="QN2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="QO2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QP2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="QQ2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QR2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QS2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QU2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="QV2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="QW2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0.06</v>
-      </c>
       <c r="QY2" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="RA2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="RB2" t="n">
         <v>0.22</v>
-      </c>
-      <c r="RB2" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="RC2" t="n">
         <v>0.07000000000000001</v>
@@ -6329,7 +6164,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="RF2" t="n">
         <v>0.07000000000000001</v>
@@ -6338,1070 +6173,1070 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="RH2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="RM2" t="n">
         <v>0.15</v>
       </c>
-      <c r="RI2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="RJ2" t="n">
+      <c r="RN2" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="RK2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="RL2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="RM2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="RN2" t="n">
-        <v>0.15</v>
-      </c>
       <c r="RO2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="RP2" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="SK2" t="n">
         <v>0.21</v>
       </c>
-      <c r="RQ2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="RR2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="RS2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="RT2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="RU2" t="n">
+      <c r="SL2" t="n">
         <v>0.12</v>
-      </c>
-      <c r="RV2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="RW2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="RX2" t="n">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="RY2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="RZ2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SA2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SB2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="SC2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SD2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SE2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SF2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SG2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="SH2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="SI2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="SJ2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="SK2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="SL2" t="n">
-        <v>0.07000000000000001</v>
       </c>
       <c r="SM2" t="n">
         <v>0.12</v>
       </c>
       <c r="SN2" t="n">
-        <v>0.68</v>
+        <v>0.12</v>
       </c>
       <c r="SO2" t="n">
-        <v>0.68</v>
+        <v>0.16</v>
       </c>
       <c r="SP2" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="SQ2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="SR2" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="SS2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="ST2" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="SU2" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
       <c r="SV2" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="SW2" t="n">
-        <v>0.34</v>
+        <v>0.12</v>
       </c>
       <c r="SX2" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="SY2" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="TA2" t="n">
-        <v>0.57</v>
+        <v>0.12</v>
       </c>
       <c r="TB2" t="n">
         <v>0.12</v>
       </c>
       <c r="TC2" t="n">
-        <v>0.16</v>
+        <v>1.25</v>
       </c>
       <c r="TD2" t="n">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="TE2" t="n">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="TF2" t="n">
         <v>0.18</v>
       </c>
       <c r="TG2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TL2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="TM2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="TN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TO2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="TP2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="TQ2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="TR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TS2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TT2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TU2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="TV2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="TW2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="TX2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TY2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="TZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UA2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="UB2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UC2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="UD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UH2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="UI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UK2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="UL2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UN2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="UO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UQ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="US2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="UT2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UU2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="UV2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="UW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UX2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="UY2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="UZ2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="VA2" t="n">
         <v>0.16</v>
       </c>
-      <c r="TH2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TI2" t="n">
+      <c r="VB2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VC2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="VD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VE2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="VF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VG2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="VH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VI2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="VJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VL2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="VM2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="VN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VQ2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="VR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VS2" t="n">
+        <v>0.8699999999999999</v>
+      </c>
+      <c r="VT2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VU2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="VV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="VW2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="VX2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="VY2" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="VZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WA2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WB2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="WD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WE2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="WF2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="WG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WL2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="WM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WQ2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="WR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WS2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WT2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WU2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="WX2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="WY2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="WZ2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="XA2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XB2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="XC2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XD2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XE2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="XF2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XG2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="XH2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XI2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XJ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="XK2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XL2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="XM2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XN2" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="XO2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XP2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XQ2" t="n">
         <v>0.18</v>
       </c>
-      <c r="TJ2" t="n">
+      <c r="XR2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XS2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XT2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XU2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XV2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XW2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XX2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="XY2" t="n">
         <v>0.21</v>
       </c>
-      <c r="TK2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TL2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TM2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TN2" t="n">
+      <c r="XZ2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="YA2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="YB2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="YC2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="YD2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="YE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YI2" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="YJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YK2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="YL2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YO2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YP2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="YQ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YS2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YT2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YU2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="YV2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="YW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YX2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YY2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="YZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZA2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZB2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZC2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZJ2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ZK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZL2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZN2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZO2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ZP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZQ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZR2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZS2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ZT2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="ZU2" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="ZV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZX2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZY2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ZZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAA2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAB2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAC2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AAD2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AAE2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAF2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AAG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAJ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAK2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAL2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAM2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAN2" t="n">
         <v>0.16</v>
       </c>
-      <c r="TO2" t="n">
+      <c r="AAO2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AAP2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAQ2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AAR2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AAS2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAT2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AAU2" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AAV2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAW2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAX2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAY2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AAZ2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ABA2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="ABB2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="ABC2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="ABD2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ABE2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="ABF2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ABG2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ABH2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ABI2" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="ABJ2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABK2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABL2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABM2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABN2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABO2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABP2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABQ2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="ABR2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABS2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="ABT2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ABU2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="ABV2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABW2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ABX2" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="ABY2" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="ABZ2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACA2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACB2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACC2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACD2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACE2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACF2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACG2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACH2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACI2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="ACJ2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="ACK2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACL2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACM2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACN2" t="n">
         <v>0.16</v>
       </c>
-      <c r="TP2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TQ2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TR2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="TS2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TT2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="TU2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TV2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TW2" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="TX2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TY2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="TZ2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="UA2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="UB2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="UC2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="UD2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="UE2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="UF2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="UG2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="UH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UK2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="UL2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="UM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UN2" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="UO2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="UP2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="UQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="US2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UT2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="UU2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="UV2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="UW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="UY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="UZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VA2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="VB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VC2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="VD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VH2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="VI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VK2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="VL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VN2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="VO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="VS2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="VT2" t="n">
+      <c r="ACO2" t="n">
         <v>0.08</v>
       </c>
-      <c r="VU2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="VV2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="VW2" t="n">
+      <c r="ACP2" t="n">
         <v>0.08</v>
       </c>
-      <c r="VX2" t="n">
+      <c r="ACQ2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ACR2" t="n">
         <v>0.08</v>
       </c>
-      <c r="VY2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="VZ2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="WA2" t="n">
+      <c r="ACS2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="ACT2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACU2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACV2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACW2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACX2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACY2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ACZ2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ADA2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ADB2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ADC2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="ADD2" t="n">
         <v>0.16</v>
       </c>
-      <c r="WB2" t="n">
+      <c r="ADE2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="ADF2" t="n">
         <v>0.08</v>
       </c>
-      <c r="WC2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="WD2" t="n">
+      <c r="ADG2" t="n">
         <v>0.08</v>
       </c>
-      <c r="WE2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="WF2" t="n">
+      <c r="ADH2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ADI2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ADJ2" t="n">
         <v>0.08</v>
       </c>
-      <c r="WG2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="WH2" t="n">
+      <c r="ADK2" t="n">
         <v>0.08</v>
       </c>
-      <c r="WI2" t="n">
+      <c r="ADL2" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="ADM2" t="n">
         <v>0.08</v>
       </c>
-      <c r="WJ2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="WK2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="WL2" t="n">
+      <c r="ADN2" t="n">
         <v>0.08</v>
       </c>
-      <c r="WM2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="WN2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="WO2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="WP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="WQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="WR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="WS2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="WT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="WU2" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="WV2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="WW2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="WX2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="WY2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="WZ2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="XA2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="XB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XE2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="XF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XG2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="XH2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="XI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XN2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="XO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XS2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="XT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XV2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XX2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="XZ2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="YA2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YB2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="YC2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YD2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="YE2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YF2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YG2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="YH2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YI2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="YJ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YK2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YL2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="YM2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YN2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="YO2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YP2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="YQ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YR2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YS2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="YT2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YU2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YV2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YW2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YX2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YY2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="YZ2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="ZA2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="ZB2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="ZC2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="ZD2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="ZE2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="ZF2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="ZG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZK2" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="ZL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZM2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ZN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZR2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZS2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ZT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZV2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ZX2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ZY2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ZZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAF2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAM2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AAN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAR2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AAS2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAU2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAV2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AAW2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AAX2" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AAY2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AAZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABE2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABF2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ABG2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABH2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ABI2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABJ2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ABK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABO2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABP2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABQ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABR2" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="ABS2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="ABT2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABU2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="ABV2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="ABW2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ABX2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="ABY2" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="ABZ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACA2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACB2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACC2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACD2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACE2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="ACF2" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="ACG2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="ACH2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACI2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="ACJ2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACK2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACL2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACM2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACN2" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="ACO2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACP2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACQ2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACR2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACS2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACT2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACU2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACV2" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="ACW2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ACX2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="ACY2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="ACZ2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="ADA2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADB2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADC2" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="ADD2" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="ADE2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADF2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADG2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADH2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADI2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADJ2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADK2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADL2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADM2" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="ADN2" t="n">
-        <v>0.57</v>
-      </c>
       <c r="ADO2" t="n">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="ADP2" t="n">
         <v>0.08</v>
       </c>
       <c r="ADQ2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="ADR2" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="ADS2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="ADT2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="ADU2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="ADV2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="ADW2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="ADX2" t="n">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="ADY2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="ADZ2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEA2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEB2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEC2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AED2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEE2" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AEF2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEG2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEH2" t="n">
-        <v>0.08</v>
+        <v>0.22</v>
       </c>
       <c r="AEI2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AEJ2" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="AEK2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEL2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEM2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AEN2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AEO2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEP2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEQ2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AER2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AES2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AET2" t="n">
-        <v>0.47</v>
+        <v>0.22</v>
       </c>
       <c r="AEU2" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AEV2" t="n">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="AEW2" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AEX2" t="n">
         <v>0.22</v>
       </c>
-      <c r="AEX2" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AEY2" t="n">
         <v>0.11</v>
       </c>
@@ -7421,184 +7256,85 @@
         <v>0.11</v>
       </c>
       <c r="AFE2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFF2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFG2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFH2" t="n">
-        <v>0.11</v>
+        <v>0.59</v>
       </c>
       <c r="AFI2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFJ2" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="AFK2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFL2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFM2" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="AFN2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFO2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFP2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFQ2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFR2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFS2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFT2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFU2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFV2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFW2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFX2" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="AFY2" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
       <c r="AFZ2" t="n">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="AGA2" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="AGB2" t="n">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="AGC2" t="n">
-        <v>0.22</v>
+        <v>0.54</v>
       </c>
       <c r="AGD2" t="n">
-        <v>0.11</v>
+        <v>0.54</v>
       </c>
       <c r="AGE2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AGF2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AGG2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AGH2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AGI2" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AGJ2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGK2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGL2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGM2" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AGN2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGO2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGP2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGQ2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGR2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGS2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGT2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGU2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGV2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGW2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGX2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGY2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AGZ2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AHA2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AHB2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AHC2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AHD2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AHE2" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AHF2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AHG2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AHH2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AHI2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AHJ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AHK2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AHL2" t="n">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
     </row>
   </sheetData>
